--- a/Romance_Merit_Board_Data.xlsx
+++ b/Romance_Merit_Board_Data.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +510,10 @@
         <v>Single</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" t="str">
         <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770879892/sec_profiles/profile_9458108227.jpg</v>
@@ -521,77 +521,77 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ANUJ GHOSH</v>
+        <v>ONKAR RAJSHEKHAR UMBRAJKAR</v>
       </c>
       <c r="B5" t="str">
-        <v>8595201892</v>
+        <v>8087704399</v>
       </c>
       <c r="C5" t="str">
-        <v>Croma- A161 -Delhi-Vasant Kunj Mall</v>
+        <v>Croma- A243 -Solapur-Murarji Peth</v>
       </c>
       <c r="D5" t="str">
-        <v>New Delhi</v>
+        <v>Solapur</v>
       </c>
       <c r="E5" t="str">
-        <v>1995-08-23</v>
+        <v>1992-04-16</v>
       </c>
       <c r="F5" t="str">
-        <v>Single</v>
+        <v>Married (2022-11-20)</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770875338/sec_profiles/profile_8595201892.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770896658/sec_profiles/profile_8087704399.jpg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>AKASHAY GHANSHYAMJI ROKADE</v>
+        <v>ANUJ GHOSH</v>
       </c>
       <c r="B6" t="str">
-        <v>8446073959</v>
+        <v>8595201892</v>
       </c>
       <c r="C6" t="str">
-        <v>Croma- A241 -Pune-Sinhgad Road</v>
+        <v>Croma- A161 -Delhi-Vasant Kunj Mall</v>
       </c>
       <c r="D6" t="str">
-        <v>Pune</v>
+        <v>New Delhi</v>
       </c>
       <c r="E6" t="str">
-        <v>1998-05-28</v>
+        <v>1995-08-23</v>
       </c>
       <c r="F6" t="str">
         <v>Single</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771059727/sec_profiles/profile_8446073959.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770875338/sec_profiles/profile_8595201892.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SAURABH RAMASHANKAR YADAV</v>
+        <v>AKASHAY GHANSHYAMJI ROKADE</v>
       </c>
       <c r="B7" t="str">
-        <v>9152805822</v>
+        <v>8446073959</v>
       </c>
       <c r="C7" t="str">
-        <v>VS- Borivali Br</v>
+        <v>Croma- A241 -Pune-Sinhgad Road</v>
       </c>
       <c r="D7" t="str">
-        <v>Mumbai</v>
+        <v>Pune</v>
       </c>
       <c r="E7" t="str">
-        <v>2000-07-05</v>
+        <v>1998-05-28</v>
       </c>
       <c r="F7" t="str">
         <v>Single</v>
@@ -600,433 +600,433 @@
         <v>33</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I7" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770969923/sec_profiles/profile_9152805822.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771059727/sec_profiles/profile_8446073959.jpg</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>ABUBAKAR BIN MOHD BAFANNA</v>
+        <v>SAURABH RAMASHANKAR YADAV</v>
       </c>
       <c r="B8" t="str">
-        <v>7013442789</v>
+        <v>9152805822</v>
       </c>
       <c r="C8" t="str">
-        <v>Croma- A227 -Hyderabad-Karmanghat</v>
+        <v>VS- Borivali Br</v>
       </c>
       <c r="D8" t="str">
-        <v>Hyderabad</v>
+        <v>Mumbai</v>
       </c>
       <c r="E8" t="str">
-        <v>1988-11-13</v>
+        <v>2000-07-05</v>
       </c>
       <c r="F8" t="str">
-        <v>Married (2019-06-13)</v>
+        <v>Single</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I8" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771221097/sec_profiles/profile_7013442789.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770969923/sec_profiles/profile_9152805822.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>TARUN GOGNA</v>
+        <v>ABUBAKAR BIN MOHD BAFANNA</v>
       </c>
       <c r="B9" t="str">
-        <v>9899854321</v>
+        <v>7013442789</v>
       </c>
       <c r="C9" t="str">
-        <v>Croma- A044 -Delhi-Rajouri</v>
+        <v>Croma- A227 -Hyderabad-Karmanghat</v>
       </c>
       <c r="D9" t="str">
-        <v>New Delhi</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E9" t="str">
-        <v>1987-03-27</v>
+        <v>1988-11-13</v>
       </c>
       <c r="F9" t="str">
-        <v>Married (2015-06-07)</v>
+        <v>Married (2019-06-13)</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770739880/sec_profiles/profile_9899854321.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771221097/sec_profiles/profile_7013442789.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>ALFHAJ ALTAF KHAN</v>
+        <v>TARUN GOGNA</v>
       </c>
       <c r="B10" t="str">
-        <v>9145777841</v>
+        <v>9899854321</v>
       </c>
       <c r="C10" t="str">
-        <v>VS- Pune(Bhosari) Br</v>
+        <v>Croma- A044 -Delhi-Rajouri</v>
       </c>
       <c r="D10" t="str">
-        <v>Pune</v>
+        <v>New Delhi</v>
       </c>
       <c r="E10" t="str">
-        <v>1996-02-06</v>
+        <v>1987-03-27</v>
       </c>
       <c r="F10" t="str">
-        <v>Married (2026-04-19)</v>
+        <v>Married (2015-06-07)</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I10" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770877461/sec_profiles/profile_9145777841.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770739880/sec_profiles/profile_9899854321.jpg</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>MOHD AZEEM</v>
+        <v>ALFHAJ ALTAF KHAN</v>
       </c>
       <c r="B11" t="str">
-        <v>9030010782</v>
+        <v>9145777841</v>
       </c>
       <c r="C11" t="str">
-        <v>Croma- A169 -Hyderabad-Sarath City Mall</v>
+        <v>VS- Pune(Bhosari) Br</v>
       </c>
       <c r="D11" t="str">
-        <v>Hyderabad</v>
+        <v>Pune</v>
       </c>
       <c r="E11" t="str">
-        <v>1992-04-03</v>
+        <v>1996-02-06</v>
       </c>
       <c r="F11" t="str">
-        <v>Married (2017-07-27)</v>
+        <v>Married (2026-04-19)</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I11" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770975101/sec_profiles/profile_9030010782.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770877461/sec_profiles/profile_9145777841.jpg</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>SHARUKH ASHRAF SHAIKH</v>
+        <v>MOHD AZEEM</v>
       </c>
       <c r="B12" t="str">
-        <v>9819606995</v>
+        <v>9030010782</v>
       </c>
       <c r="C12" t="str">
-        <v>VS- Mira Road Br</v>
+        <v>Croma- A169 -Hyderabad-Sarath City Mall</v>
       </c>
       <c r="D12" t="str">
-        <v>Thane</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E12" t="str">
-        <v>1995-06-16</v>
+        <v>1992-04-03</v>
       </c>
       <c r="F12" t="str">
-        <v>Single</v>
+        <v>Married (2017-07-27)</v>
       </c>
       <c r="G12">
         <v>31</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770890376/sec_profiles/profile_9819606995.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770975101/sec_profiles/profile_9030010782.jpg</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Ashish harsora</v>
+        <v>SHARUKH ASHRAF SHAIKH</v>
       </c>
       <c r="B13" t="str">
-        <v>7700987551</v>
+        <v>9819606995</v>
       </c>
       <c r="C13" t="str">
-        <v>VS- Malad</v>
+        <v>VS- Mira Road Br</v>
       </c>
       <c r="D13" t="str">
-        <v>Mumbai</v>
+        <v>Thane</v>
       </c>
       <c r="E13" t="str">
-        <v>1993-08-09</v>
+        <v>1995-06-16</v>
       </c>
       <c r="F13" t="str">
         <v>Single</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I13" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771071265/sec_profiles/profile_7700987551.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770890376/sec_profiles/profile_9819606995.jpg</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Surinder singh</v>
+        <v>Ashish harsora</v>
       </c>
       <c r="B14" t="str">
-        <v>9990429329</v>
+        <v>7700987551</v>
       </c>
       <c r="C14" t="str">
-        <v>VS- Delhi(Paschim Vihar)</v>
+        <v>VS- Malad</v>
       </c>
       <c r="D14" t="str">
-        <v>Delhi</v>
+        <v>Mumbai</v>
       </c>
       <c r="E14" t="str">
-        <v>1994-12-11</v>
+        <v>1993-08-09</v>
       </c>
       <c r="F14" t="str">
         <v>Single</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770879100/sec_profiles/profile_9990429329.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771071265/sec_profiles/profile_7700987551.jpg</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Saurabh yadav</v>
+        <v>Surinder singh</v>
       </c>
       <c r="B15" t="str">
-        <v>8707258851</v>
+        <v>9990429329</v>
       </c>
       <c r="C15" t="str">
-        <v>VS- Up(Greater Noida) Br</v>
+        <v>VS- Delhi(Paschim Vihar)</v>
       </c>
       <c r="D15" t="str">
-        <v>Greater Noida</v>
+        <v>Delhi</v>
       </c>
       <c r="E15" t="str">
-        <v>1996-04-30</v>
+        <v>1994-12-11</v>
       </c>
       <c r="F15" t="str">
         <v>Single</v>
       </c>
       <c r="G15">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771310861/sec_profiles/profile_8707258851.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770879100/sec_profiles/profile_9990429329.jpg</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>ARBAZ MOMIN AZIZ MOMIN</v>
+        <v>Saurabh yadav</v>
       </c>
       <c r="B16" t="str">
-        <v>8421626972</v>
+        <v>8707258851</v>
       </c>
       <c r="C16" t="str">
-        <v>Croma- A203 -Pune-JVA Mall</v>
+        <v>VS- Up(Greater Noida) Br</v>
       </c>
       <c r="D16" t="str">
-        <v>Pune</v>
+        <v>Greater Noida</v>
       </c>
       <c r="E16" t="str">
-        <v>1997-11-14</v>
+        <v>1996-04-30</v>
       </c>
       <c r="F16" t="str">
         <v>Single</v>
       </c>
       <c r="G16">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I16" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770804114/sec_profiles/profile_8421626972.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771310861/sec_profiles/profile_8707258851.jpg</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>SHASHI KANT</v>
+        <v>ARBAZ MOMIN AZIZ MOMIN</v>
       </c>
       <c r="B17" t="str">
-        <v>8484081490</v>
+        <v>8421626972</v>
       </c>
       <c r="C17" t="str">
-        <v>VS- Pune(Chinchwad) Br</v>
+        <v>Croma- A203 -Pune-JVA Mall</v>
       </c>
       <c r="D17" t="str">
         <v>Pune</v>
       </c>
       <c r="E17" t="str">
-        <v>1991-04-08</v>
+        <v>1997-11-14</v>
       </c>
       <c r="F17" t="str">
-        <v>Married (2023-03-01)</v>
+        <v>Single</v>
       </c>
       <c r="G17">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770979110/sec_profiles/profile_8484081490.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770804114/sec_profiles/profile_8421626972.jpg</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>AKBAR KHAN</v>
+        <v>SHASHI KANT</v>
       </c>
       <c r="B18" t="str">
-        <v>9462008833</v>
+        <v>8484081490</v>
       </c>
       <c r="C18" t="str">
-        <v>Croma- A689 -Jaipur-Jagatpura</v>
+        <v>VS- Pune(Chinchwad) Br</v>
       </c>
       <c r="D18" t="str">
-        <v>Jaipur</v>
+        <v>Pune</v>
       </c>
       <c r="E18" t="str">
-        <v>1988-11-15</v>
+        <v>1991-04-08</v>
       </c>
       <c r="F18" t="str">
-        <v>Married (2016-12-05)</v>
+        <v>Married (2023-03-01)</v>
       </c>
       <c r="G18">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I18" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771146397/sec_profiles/profile_9462008833.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770979110/sec_profiles/profile_8484081490.jpg</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>KRISH RATHOD</v>
+        <v>AKBAR KHAN</v>
       </c>
       <c r="B19" t="str">
-        <v>9016882997</v>
+        <v>9462008833</v>
       </c>
       <c r="C19" t="str">
-        <v>VS- Surat(Vip Road-Vesu)</v>
+        <v>Croma- A689 -Jaipur-Jagatpura</v>
       </c>
       <c r="D19" t="str">
-        <v>Surat</v>
+        <v>Jaipur</v>
       </c>
       <c r="E19" t="str">
-        <v>2005-12-17</v>
+        <v>1988-11-15</v>
       </c>
       <c r="F19" t="str">
-        <v>Single</v>
+        <v>Married (2016-12-05)</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770800807/sec_profiles/profile_9016882997.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771146397/sec_profiles/profile_9462008833.jpg</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>GAURAV SINGHAL</v>
+        <v>KRISH RATHOD</v>
       </c>
       <c r="B20" t="str">
-        <v>9873829955</v>
+        <v>9016882997</v>
       </c>
       <c r="C20" t="str">
-        <v>Croma- A120 -Gurugram-Sector 29</v>
+        <v>VS- Surat(Vip Road-Vesu)</v>
       </c>
       <c r="D20" t="str">
-        <v>Gurugram</v>
+        <v>Surat</v>
       </c>
       <c r="E20" t="str">
-        <v>1994-12-18</v>
+        <v>2005-12-17</v>
       </c>
       <c r="F20" t="str">
         <v>Single</v>
       </c>
       <c r="G20">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770802347/sec_profiles/profile_9873829955.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770800807/sec_profiles/profile_9016882997.jpg</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>SALMAN SYED</v>
+        <v>GAURAV SINGHAL</v>
       </c>
       <c r="B21" t="str">
-        <v>9676520170</v>
+        <v>9873829955</v>
       </c>
       <c r="C21" t="str">
-        <v>Croma- A646 -Hyderabad-Kokapet</v>
+        <v>Croma- A120 -Gurugram-Sector 29</v>
       </c>
       <c r="D21" t="str">
-        <v>Hyderabad</v>
+        <v>Gurugram</v>
       </c>
       <c r="E21" t="str">
-        <v>2000-01-12</v>
+        <v>1994-12-18</v>
       </c>
       <c r="F21" t="str">
         <v>Single</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771221157/sec_profiles/profile_9676520170.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770802347/sec_profiles/profile_9873829955.jpg</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>RISHABH MALUJA</v>
+        <v>SALMAN SYED</v>
       </c>
       <c r="B22" t="str">
-        <v>8766260531</v>
+        <v>9676520170</v>
       </c>
       <c r="C22" t="str">
-        <v>Croma- A189 -Noida-Gaur Mall</v>
+        <v>Croma- A646 -Hyderabad-Kokapet</v>
       </c>
       <c r="D22" t="str">
-        <v>Noida</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E22" t="str">
-        <v>1996-08-07</v>
+        <v>2000-01-12</v>
       </c>
       <c r="F22" t="str">
         <v>Single</v>
@@ -1038,1071 +1038,1071 @@
         <v>0</v>
       </c>
       <c r="I22" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770705754/sec_profiles/profile_8766260531.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771221157/sec_profiles/profile_9676520170.jpg</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>TAMASIS ROY</v>
+        <v>RISHABH MALUJA</v>
       </c>
       <c r="B23" t="str">
-        <v>8013996470</v>
+        <v>8766260531</v>
       </c>
       <c r="C23" t="str">
-        <v>Croma- A370 -Howrah-Avani Mall</v>
+        <v>Croma- A189 -Noida-Gaur Mall</v>
       </c>
       <c r="D23" t="str">
-        <v>Howrah</v>
+        <v>Noida</v>
       </c>
       <c r="E23" t="str">
-        <v>1998-01-14</v>
+        <v>1996-08-07</v>
       </c>
       <c r="F23" t="str">
-        <v>Married (2010-06-07)</v>
+        <v>Single</v>
       </c>
       <c r="G23">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771052733/sec_profiles/profile_8013996470.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770705754/sec_profiles/profile_8766260531.jpg</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Akash adlakha</v>
+        <v>TAMASIS ROY</v>
       </c>
       <c r="B24" t="str">
-        <v>8920239327</v>
+        <v>8013996470</v>
       </c>
       <c r="C24" t="str">
-        <v>Croma- A012 -Faridabad-Crown Mall</v>
+        <v>Croma- A370 -Howrah-Avani Mall</v>
       </c>
       <c r="D24" t="str">
-        <v>Faridabad</v>
+        <v>Howrah</v>
       </c>
       <c r="E24" t="str">
-        <v>1998-02-13</v>
+        <v>1998-01-14</v>
       </c>
       <c r="F24" t="str">
-        <v>Single</v>
+        <v>Married (2010-06-07)</v>
       </c>
       <c r="G24">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712608/sec_profiles/profile_8920239327.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771052733/sec_profiles/profile_8013996470.jpg</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Kevat Suraj</v>
+        <v>Akash adlakha</v>
       </c>
       <c r="B25" t="str">
-        <v>8686676005</v>
+        <v>8920239327</v>
       </c>
       <c r="C25" t="str">
-        <v>Croma- A148 -Hyderabad-Kompally</v>
+        <v>Croma- A012 -Faridabad-Crown Mall</v>
       </c>
       <c r="D25" t="str">
-        <v>Hyderabad</v>
+        <v>Faridabad</v>
       </c>
       <c r="E25" t="str">
-        <v>1997-05-25</v>
+        <v>1998-02-13</v>
       </c>
       <c r="F25" t="str">
-        <v>Married (2023-05-05)</v>
+        <v>Single</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771219179/sec_profiles/profile_8686676005.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712608/sec_profiles/profile_8920239327.jpg</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>PANDURANG BABURAO LONDHE</v>
+        <v>Kevat Suraj</v>
       </c>
       <c r="B26" t="str">
-        <v>9529971155</v>
+        <v>8686676005</v>
       </c>
       <c r="C26" t="str">
-        <v>Croma- A303 -Pune-Wagholi</v>
+        <v>Croma- A148 -Hyderabad-Kompally</v>
       </c>
       <c r="D26" t="str">
-        <v>Pune</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E26" t="str">
-        <v>1999-01-01</v>
+        <v>1997-05-25</v>
       </c>
       <c r="F26" t="str">
-        <v>Married (2022-08-23)</v>
+        <v>Married (2023-05-05)</v>
       </c>
       <c r="G26">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I26" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770987973/sec_profiles/profile_9529971155.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771219179/sec_profiles/profile_8686676005.jpg</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>MOHAMMED HAMED</v>
+        <v>PANDURANG BABURAO LONDHE</v>
       </c>
       <c r="B27" t="str">
-        <v>7396581036</v>
+        <v>9529971155</v>
       </c>
       <c r="C27" t="str">
-        <v>Croma- A152 -Hyderabad-Attapur</v>
+        <v>Croma- A303 -Pune-Wagholi</v>
       </c>
       <c r="D27" t="str">
-        <v>Hyderabad</v>
+        <v>Pune</v>
       </c>
       <c r="E27" t="str">
-        <v>1998-02-02</v>
+        <v>1999-01-01</v>
       </c>
       <c r="F27" t="str">
-        <v>Single</v>
+        <v>Married (2022-08-23)</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I27" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771247057/sec_profiles/profile_7396581036.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770987973/sec_profiles/profile_9529971155.jpg</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>JABIR ALI SABIR ALI KHAN</v>
+        <v>MOHAMMED HAMED</v>
       </c>
       <c r="B28" t="str">
-        <v>9768903672</v>
+        <v>7396581036</v>
       </c>
       <c r="C28" t="str">
-        <v>Croma- A175 -Thane-Ghodbunder Road</v>
+        <v>Croma- A152 -Hyderabad-Attapur</v>
       </c>
       <c r="D28" t="str">
-        <v>Thane</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E28" t="str">
-        <v>1994-04-16</v>
+        <v>1998-02-02</v>
       </c>
       <c r="F28" t="str">
-        <v>Married (2017-05-08)</v>
+        <v>Single</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771053366/sec_profiles/profile_9768903672.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771247057/sec_profiles/profile_7396581036.jpg</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>VISHAL KUMAR</v>
+        <v>JABIR ALI SABIR ALI KHAN</v>
       </c>
       <c r="B29" t="str">
-        <v>7007863432</v>
+        <v>9768903672</v>
       </c>
       <c r="C29" t="str">
-        <v>Croma- A316 -Gurugram-Mall Fifty One</v>
+        <v>Croma- A175 -Thane-Ghodbunder Road</v>
       </c>
       <c r="D29" t="str">
-        <v>Gurugram</v>
+        <v>Thane</v>
       </c>
       <c r="E29" t="str">
-        <v>2005-08-07</v>
+        <v>1994-04-16</v>
       </c>
       <c r="F29" t="str">
-        <v>Married (2025-02-03)</v>
+        <v>Married (2017-05-08)</v>
       </c>
       <c r="G29">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770821983/sec_profiles/profile_7007863432.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771053366/sec_profiles/profile_9768903672.jpg</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>HARVENDRA SINGH</v>
+        <v>VISHAL KUMAR</v>
       </c>
       <c r="B30" t="str">
-        <v>9643239850</v>
+        <v>7007863432</v>
       </c>
       <c r="C30" t="str">
-        <v>Croma- A544 -Noida-Golden I</v>
+        <v>Croma- A316 -Gurugram-Mall Fifty One</v>
       </c>
       <c r="D30" t="str">
-        <v>Noida</v>
+        <v>Gurugram</v>
       </c>
       <c r="E30" t="str">
-        <v>1992-10-02</v>
+        <v>2005-08-07</v>
       </c>
       <c r="F30" t="str">
-        <v>Married (2026-05-24)</v>
+        <v>Married (2025-02-03)</v>
       </c>
       <c r="G30">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I30" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770727579/sec_profiles/profile_9643239850.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770821983/sec_profiles/profile_7007863432.jpg</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>ABHINAV MISHRA</v>
+        <v>HARVENDRA SINGH</v>
       </c>
       <c r="B31" t="str">
-        <v>7869363024</v>
+        <v>9643239850</v>
       </c>
       <c r="C31" t="str">
-        <v>Croma- A409 -Indore-Sapna Sangeeta Road</v>
+        <v>Croma- A544 -Noida-Golden I</v>
       </c>
       <c r="D31" t="str">
-        <v>Indore</v>
+        <v>Noida</v>
       </c>
       <c r="E31" t="str">
-        <v>2026-03-14</v>
+        <v>1992-10-02</v>
       </c>
       <c r="F31" t="str">
-        <v>Married (2026-01-19)</v>
+        <v>Married (2026-05-24)</v>
       </c>
       <c r="G31">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I31" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770705287/sec_profiles/profile_7869363024.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770727579/sec_profiles/profile_9643239850.jpg</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>RUHEB PASHA</v>
+        <v>Bhavnil patel</v>
       </c>
       <c r="B32" t="str">
-        <v>8123232008</v>
+        <v>9377706162</v>
       </c>
       <c r="C32" t="str">
-        <v>Croma- A057 -Bangalore-Bel Road</v>
+        <v>VS- Ahmedabad(Chandkheda Rd) Br</v>
       </c>
       <c r="D32" t="str">
-        <v>Bangalore</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="E32" t="str">
-        <v>1997-08-15</v>
+        <v>1991-05-31</v>
       </c>
       <c r="F32" t="str">
-        <v>Married (2026-09-07)</v>
+        <v>Married (2020-01-30)</v>
       </c>
       <c r="G32">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771045832/sec_profiles/profile_8123232008.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771396359/sec_profiles/profile_9377706162.jpg</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>SANDEEP KUMAR</v>
+        <v>ABHINAV MISHRA</v>
       </c>
       <c r="B33" t="str">
-        <v>9999404156</v>
+        <v>7869363024</v>
       </c>
       <c r="C33" t="str">
-        <v>Croma- A151 -Noida-Mall of India</v>
+        <v>Croma- A409 -Indore-Sapna Sangeeta Road</v>
       </c>
       <c r="D33" t="str">
-        <v>Noida</v>
+        <v>Indore</v>
       </c>
       <c r="E33" t="str">
-        <v>1985-11-14</v>
+        <v>2026-03-14</v>
       </c>
       <c r="F33" t="str">
-        <v>Married (2021-12-02)</v>
+        <v>Married (2026-01-19)</v>
       </c>
       <c r="G33">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I33" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771067447/sec_profiles/profile_9999404156.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770705287/sec_profiles/profile_7869363024.jpg</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>ABID KHAN</v>
+        <v>RUHEB PASHA</v>
       </c>
       <c r="B34" t="str">
-        <v>9871162724</v>
+        <v>8123232008</v>
       </c>
       <c r="C34" t="str">
-        <v>Croma- A104 -Delhi-Pusa Road</v>
+        <v>Croma- A057 -Bangalore-Bel Road</v>
       </c>
       <c r="D34" t="str">
-        <v>New Delhi</v>
+        <v>Bangalore</v>
       </c>
       <c r="E34" t="str">
-        <v>1986-03-06</v>
+        <v>1997-08-15</v>
       </c>
       <c r="F34" t="str">
-        <v>Married (2013-04-14)</v>
+        <v>Married (2026-09-07)</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770996947/sec_profiles/profile_9871162724.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771045832/sec_profiles/profile_8123232008.jpg</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Mohd sajeed khan</v>
+        <v>SANDEEP KUMAR</v>
       </c>
       <c r="B35" t="str">
-        <v>7569720524</v>
+        <v>9999404156</v>
       </c>
       <c r="C35" t="str">
-        <v>Croma- A463 -Hyderabad-Aparna Mall</v>
+        <v>Croma- A151 -Noida-Mall of India</v>
       </c>
       <c r="D35" t="str">
-        <v>Hyderabad</v>
+        <v>Noida</v>
       </c>
       <c r="E35" t="str">
-        <v>1999-06-13</v>
+        <v>1985-11-14</v>
       </c>
       <c r="F35" t="str">
-        <v>Single</v>
+        <v>Married (2021-12-02)</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I35" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771237889/sec_profiles/profile_7569720524.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771067447/sec_profiles/profile_9999404156.jpg</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>VARDHAMAN SANTOSH DANOLE</v>
+        <v>ABID KHAN</v>
       </c>
       <c r="B36" t="str">
-        <v>9175537106</v>
+        <v>9871162724</v>
       </c>
       <c r="C36" t="str">
-        <v>Reliance Digital- TI3I - RRL CDIT Boulevard P</v>
+        <v>Croma- A104 -Delhi-Pusa Road</v>
       </c>
       <c r="D36" t="str">
-        <v>Pune</v>
+        <v>New Delhi</v>
       </c>
       <c r="E36" t="str">
-        <v>2026-04-14</v>
+        <v>1986-03-06</v>
       </c>
       <c r="F36" t="str">
-        <v>Single</v>
+        <v>Married (2013-04-14)</v>
       </c>
       <c r="G36">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770812819/sec_profiles/profile_9175537106.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770996947/sec_profiles/profile_9871162724.jpg</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>SHARUK KHAN</v>
+        <v>Mohd sajeed khan</v>
       </c>
       <c r="B37" t="str">
-        <v>9110811726</v>
+        <v>7569720524</v>
       </c>
       <c r="C37" t="str">
-        <v>Croma- A225 -Hosur-Bagalur Road</v>
+        <v>Croma- A463 -Hyderabad-Aparna Mall</v>
       </c>
       <c r="D37" t="str">
-        <v>Hosur</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E37" t="str">
-        <v>1997-10-20</v>
+        <v>1999-06-13</v>
       </c>
       <c r="F37" t="str">
-        <v>Married (2023-11-26)</v>
+        <v>Single</v>
       </c>
       <c r="G37">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771155512/sec_profiles/profile_9110811726.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771237889/sec_profiles/profile_7569720524.jpg</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>PRANAY GANESH NACHARE</v>
+        <v>VARDHAMAN SANTOSH DANOLE</v>
       </c>
       <c r="B38" t="str">
-        <v>9321819019</v>
+        <v>9175537106</v>
       </c>
       <c r="C38" t="str">
-        <v>Croma- A709 -Navi Mumbai-New Panvel East</v>
+        <v>Reliance Digital- TI3I - RRL CDIT Boulevard P</v>
       </c>
       <c r="D38" t="str">
-        <v>Navi Mumbai</v>
+        <v>Pune</v>
       </c>
       <c r="E38" t="str">
-        <v>1996-05-20</v>
+        <v>2026-04-14</v>
       </c>
       <c r="F38" t="str">
-        <v>Married (2025-05-20)</v>
+        <v>Single</v>
       </c>
       <c r="G38">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770979488/sec_profiles/profile_9321819019.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770812819/sec_profiles/profile_9175537106.jpg</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>SACHIN</v>
+        <v>SHARUK KHAN</v>
       </c>
       <c r="B39" t="str">
-        <v>8708323804</v>
+        <v>9110811726</v>
       </c>
       <c r="C39" t="str">
-        <v>VS- Haryana(Palam Vihar Rd)</v>
+        <v>Croma- A225 -Hosur-Bagalur Road</v>
       </c>
       <c r="D39" t="str">
-        <v>Gurgaon</v>
+        <v>Hosur</v>
       </c>
       <c r="E39" t="str">
-        <v>1999-10-15</v>
+        <v>1997-10-20</v>
       </c>
       <c r="F39" t="str">
-        <v>Single</v>
+        <v>Married (2023-11-26)</v>
       </c>
       <c r="G39">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770875303/sec_profiles/profile_8708323804.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771155512/sec_profiles/profile_9110811726.jpg</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>SAMEER FAQIRA SHAIKH</v>
+        <v>PRANAY GANESH NACHARE</v>
       </c>
       <c r="B40" t="str">
-        <v>7021997991</v>
+        <v>9321819019</v>
       </c>
       <c r="C40" t="str">
-        <v>Croma- A017 -Thane-Bhayander</v>
+        <v>Croma- A709 -Navi Mumbai-New Panvel East</v>
       </c>
       <c r="D40" t="str">
-        <v>Thane</v>
+        <v>Navi Mumbai</v>
       </c>
       <c r="E40" t="str">
-        <v>1987-05-31</v>
+        <v>1996-05-20</v>
       </c>
       <c r="F40" t="str">
-        <v>Married (2016-12-04)</v>
+        <v>Married (2025-05-20)</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770802846/sec_profiles/profile_7021997991.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770979488/sec_profiles/profile_9321819019.jpg</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>PRADEEP KUMAR NIGAM</v>
+        <v>SACHIN</v>
       </c>
       <c r="B41" t="str">
-        <v>8851612128</v>
+        <v>8708323804</v>
       </c>
       <c r="C41" t="str">
-        <v>Croma- A112 -Delhi-Select City Walk</v>
+        <v>VS- Haryana(Palam Vihar Rd)</v>
       </c>
       <c r="D41" t="str">
-        <v>New Delhi</v>
+        <v>Gurgaon</v>
       </c>
       <c r="E41" t="str">
-        <v>1993-01-02</v>
+        <v>1999-10-15</v>
       </c>
       <c r="F41" t="str">
-        <v>Married (2020-01-23)</v>
+        <v>Single</v>
       </c>
       <c r="G41">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I41" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770808271/sec_profiles/profile_8851612128.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770875303/sec_profiles/profile_8708323804.jpg</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>HALEGOWDRU AMBARESH</v>
+        <v>MOHAMED IMRAN AHMED</v>
       </c>
       <c r="B42" t="str">
-        <v>7676764841</v>
+        <v>9945111142</v>
       </c>
       <c r="C42" t="str">
-        <v>Croma- A522 -Ballari-Infantry Road</v>
+        <v>Croma- A066 -Bangalore-Bannerghatta Mall</v>
       </c>
       <c r="D42" t="str">
-        <v>Ballari</v>
+        <v>Bangalore</v>
       </c>
       <c r="E42" t="str">
-        <v>1993-06-01</v>
+        <v>1983-11-13</v>
       </c>
       <c r="F42" t="str">
-        <v>Married (2026-12-14)</v>
+        <v>Married (2014-08-08)</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771159255/sec_profiles/profile_7676764841.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771402559/sec_profiles/profile_9945111142.jpg</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>NIKHIL MISHRA</v>
+        <v>SAMEER FAQIRA SHAIKH</v>
       </c>
       <c r="B43" t="str">
-        <v>8081957959</v>
+        <v>7021997991</v>
       </c>
       <c r="C43" t="str">
-        <v>Croma- A526 -Lucknow-Aliganj Ring Road</v>
+        <v>Croma- A017 -Thane-Bhayander</v>
       </c>
       <c r="D43" t="str">
-        <v>Lucknow</v>
+        <v>Thane</v>
       </c>
       <c r="E43" t="str">
-        <v>1996-08-21</v>
+        <v>1987-05-31</v>
       </c>
       <c r="F43" t="str">
-        <v>Married (2026-02-04)</v>
+        <v>Married (2016-12-04)</v>
       </c>
       <c r="G43">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770974908/sec_profiles/profile_8081957959.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770802846/sec_profiles/profile_7021997991.jpg</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>AIYUBKHAN MOHAMMADKHAN PATHAN</v>
+        <v>PRADEEP KUMAR NIGAM</v>
       </c>
       <c r="B44" t="str">
-        <v>9428880507</v>
+        <v>8851612128</v>
       </c>
       <c r="C44" t="str">
-        <v>VS- Vadodara(Alkapuri) Br</v>
+        <v>Croma- A112 -Delhi-Select City Walk</v>
       </c>
       <c r="D44" t="str">
-        <v>Vadodara</v>
+        <v>New Delhi</v>
       </c>
       <c r="E44" t="str">
-        <v>1981-09-05</v>
+        <v>1993-01-02</v>
       </c>
       <c r="F44" t="str">
-        <v>Married (2008-12-28)</v>
+        <v>Married (2020-01-23)</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872325/sec_profiles/profile_9428880507.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770808271/sec_profiles/profile_8851612128.jpg</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>DHANRAJ</v>
+        <v>HALEGOWDRU AMBARESH</v>
       </c>
       <c r="B45" t="str">
-        <v>8949906024</v>
+        <v>7676764841</v>
       </c>
       <c r="C45" t="str">
-        <v>Croma- A168 -Jaipur-WTP Mall</v>
+        <v>Croma- A522 -Ballari-Infantry Road</v>
       </c>
       <c r="D45" t="str">
-        <v>Jaipur</v>
+        <v>Ballari</v>
       </c>
       <c r="E45" t="str">
-        <v>1984-10-03</v>
+        <v>1993-06-01</v>
       </c>
       <c r="F45" t="str">
-        <v>Married (2008-03-10)</v>
+        <v>Married (2026-12-14)</v>
       </c>
       <c r="G45">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770899681/sec_profiles/profile_8949906024.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771159255/sec_profiles/profile_7676764841.jpg</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Adil Niyamat Sharif</v>
+        <v>NIKHIL MISHRA</v>
       </c>
       <c r="B46" t="str">
-        <v>9664630095</v>
+        <v>8081957959</v>
       </c>
       <c r="C46" t="str">
-        <v>VS- Andheri Br</v>
+        <v>Croma- A526 -Lucknow-Aliganj Ring Road</v>
       </c>
       <c r="D46" t="str">
-        <v>Mumbai</v>
+        <v>Lucknow</v>
       </c>
       <c r="E46" t="str">
-        <v>1992-03-22</v>
+        <v>1996-08-21</v>
       </c>
       <c r="F46" t="str">
-        <v>Married (2022-01-09)</v>
+        <v>Married (2026-02-04)</v>
       </c>
       <c r="G46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771229336/sec_profiles/profile_9664630095.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770974908/sec_profiles/profile_8081957959.jpg</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>VIKAS TOMAR</v>
+        <v>AIYUBKHAN MOHAMMADKHAN PATHAN</v>
       </c>
       <c r="B47" t="str">
-        <v>9811813419</v>
+        <v>9428880507</v>
       </c>
       <c r="C47" t="str">
-        <v>Croma- A204 -Delhi-Vegas Mall</v>
+        <v>VS- Vadodara(Alkapuri) Br</v>
       </c>
       <c r="D47" t="str">
-        <v>New Delhi</v>
+        <v>Vadodara</v>
       </c>
       <c r="E47" t="str">
-        <v>1984-02-17</v>
+        <v>1981-09-05</v>
       </c>
       <c r="F47" t="str">
-        <v>Married (2014-11-06)</v>
+        <v>Married (2008-12-28)</v>
       </c>
       <c r="G47">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I47" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770743115/sec_profiles/profile_9811813419.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872325/sec_profiles/profile_9428880507.jpg</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>MAHESH RANJEET SINGH YADAV</v>
+        <v>DHANRAJ</v>
       </c>
       <c r="B48" t="str">
-        <v>9059595848</v>
+        <v>8949906024</v>
       </c>
       <c r="C48" t="str">
-        <v>Croma- A447 -Secunderabad-West Marredpally</v>
+        <v>Croma- A168 -Jaipur-WTP Mall</v>
       </c>
       <c r="D48" t="str">
-        <v>Secunderabad</v>
+        <v>Jaipur</v>
       </c>
       <c r="E48" t="str">
-        <v>1988-11-21</v>
+        <v>1984-10-03</v>
       </c>
       <c r="F48" t="str">
-        <v>Married (2026-06-28)</v>
+        <v>Married (2008-03-10)</v>
       </c>
       <c r="G48">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770879794/sec_profiles/profile_9059595848.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770899681/sec_profiles/profile_8949906024.jpg</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Salman khan</v>
+        <v>Adil Niyamat Sharif</v>
       </c>
       <c r="B49" t="str">
-        <v>8766019836</v>
+        <v>9664630095</v>
       </c>
       <c r="C49" t="str">
-        <v>VS- Bhiwandi Br</v>
+        <v>VS- Andheri Br</v>
       </c>
       <c r="D49" t="str">
-        <v>Thane</v>
+        <v>Mumbai</v>
       </c>
       <c r="E49" t="str">
-        <v>2000-03-12</v>
+        <v>1992-03-22</v>
       </c>
       <c r="F49" t="str">
-        <v>Married (2024-10-17)</v>
+        <v>Married (2022-01-09)</v>
       </c>
       <c r="G49">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>9</v>
       </c>
       <c r="I49" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770796718/sec_profiles/profile_8766019836.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771229336/sec_profiles/profile_9664630095.jpg</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>MOHD AZAM</v>
+        <v>VIKAS TOMAR</v>
       </c>
       <c r="B50" t="str">
-        <v>7997831730</v>
+        <v>9811813419</v>
       </c>
       <c r="C50" t="str">
-        <v>VS- Ts(Karmanghat)</v>
+        <v>Croma- A204 -Delhi-Vegas Mall</v>
       </c>
       <c r="D50" t="str">
-        <v>Telanagna</v>
+        <v>New Delhi</v>
       </c>
       <c r="E50" t="str">
-        <v>2003-02-15</v>
+        <v>1984-02-17</v>
       </c>
       <c r="F50" t="str">
-        <v>Single</v>
+        <v>Married (2014-11-06)</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I50" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771224726/sec_profiles/profile_7997831730.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770743115/sec_profiles/profile_9811813419.jpg</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>MANISH SANTANI</v>
+        <v>MAHESH RANJEET SINGH YADAV</v>
       </c>
       <c r="B51" t="str">
-        <v>6377159886</v>
+        <v>9059595848</v>
       </c>
       <c r="C51" t="str">
-        <v>Croma- A168 -Jaipur-WTP Mall</v>
+        <v>Croma- A447 -Secunderabad-West Marredpally</v>
       </c>
       <c r="D51" t="str">
-        <v>Jaipur</v>
+        <v>Secunderabad</v>
       </c>
       <c r="E51" t="str">
-        <v>2002-11-26</v>
+        <v>1988-11-21</v>
       </c>
       <c r="F51" t="str">
-        <v>Single</v>
+        <v>Married (2026-06-28)</v>
       </c>
       <c r="G51">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771056285/sec_profiles/profile_6377159886.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770879794/sec_profiles/profile_9059595848.jpg</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>UMASHANKAR</v>
+        <v>UMESH PRABHAKAR SHINDE</v>
       </c>
       <c r="B52" t="str">
-        <v>9632783196</v>
+        <v>9922663882</v>
       </c>
       <c r="C52" t="str">
-        <v>Croma- A018 -Bangalore-SS Manor</v>
+        <v>Croma- A156 -Pune-Baner</v>
       </c>
       <c r="D52" t="str">
-        <v>Bangalore</v>
+        <v>Pune</v>
       </c>
       <c r="E52" t="str">
-        <v>1989-01-17</v>
+        <v>1998-12-17</v>
       </c>
       <c r="F52" t="str">
-        <v>Married (2015-11-18)</v>
+        <v>Single</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I52" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771075812/sec_profiles/profile_9632783196.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771316957/sec_profiles/profile_9922663882.jpg</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>RAJU BONELA</v>
+        <v>Salman khan</v>
       </c>
       <c r="B53" t="str">
-        <v>7386766063</v>
+        <v>8766019836</v>
       </c>
       <c r="C53" t="str">
-        <v>VS- Ts(A.S.Rao Nagar)</v>
+        <v>VS- Bhiwandi Br</v>
       </c>
       <c r="D53" t="str">
-        <v>Telanagna</v>
+        <v>Thane</v>
       </c>
       <c r="E53" t="str">
-        <v>1999-12-11</v>
+        <v>2000-03-12</v>
       </c>
       <c r="F53" t="str">
-        <v>Single</v>
+        <v>Married (2024-10-17)</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I53" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770723890/sec_profiles/profile_7386766063.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770796718/sec_profiles/profile_8766019836.jpg</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>MOHD SUFIYAN</v>
+        <v>MOHD AZAM</v>
       </c>
       <c r="B54" t="str">
-        <v>8700120182</v>
+        <v>7997831730</v>
       </c>
       <c r="C54" t="str">
-        <v>Croma- A358 -Delhi-Pacific Mall</v>
+        <v>VS- Ts(Karmanghat)</v>
       </c>
       <c r="D54" t="str">
-        <v>New Delhi</v>
+        <v>Telanagna</v>
       </c>
       <c r="E54" t="str">
-        <v>1991-11-11</v>
+        <v>2003-02-15</v>
       </c>
       <c r="F54" t="str">
-        <v>Married (2023-11-21)</v>
+        <v>Single</v>
       </c>
       <c r="G54">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770992602/sec_profiles/profile_8700120182.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771224726/sec_profiles/profile_7997831730.jpg</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>KHARJULE GAJANAN VIJAYRAO</v>
+        <v>MANISH SANTANI</v>
       </c>
       <c r="B55" t="str">
-        <v>8688966550</v>
+        <v>6377159886</v>
       </c>
       <c r="C55" t="str">
-        <v>Croma- A134 -Hyderabad-AS RaoNagar</v>
+        <v>Croma- A168 -Jaipur-WTP Mall</v>
       </c>
       <c r="D55" t="str">
-        <v>Hyderabad</v>
+        <v>Jaipur</v>
       </c>
       <c r="E55" t="str">
-        <v>1991-06-09</v>
+        <v>2002-11-26</v>
       </c>
       <c r="F55" t="str">
-        <v>Married (2025-05-06)</v>
+        <v>Single</v>
       </c>
       <c r="G55">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770725160/sec_profiles/profile_8688966550.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771056285/sec_profiles/profile_6377159886.jpg</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>BAKASH SHAIK ALLAH</v>
+        <v>UMASHANKAR</v>
       </c>
       <c r="B56" t="str">
-        <v>9663827863</v>
+        <v>9632783196</v>
       </c>
       <c r="C56" t="str">
-        <v>Croma- A207 -Bangalore-Hennur Road</v>
+        <v>Croma- A018 -Bangalore-SS Manor</v>
       </c>
       <c r="D56" t="str">
         <v>Bangalore</v>
       </c>
       <c r="E56" t="str">
-        <v>1990-01-03</v>
+        <v>1989-01-17</v>
       </c>
       <c r="F56" t="str">
-        <v>Married (2024-04-21)</v>
+        <v>Married (2015-11-18)</v>
       </c>
       <c r="G56">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I56" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770898832/sec_profiles/profile_9663827863.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771075812/sec_profiles/profile_9632783196.jpg</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>MUJAHID KHAN</v>
+        <v>RAJU BONELA</v>
       </c>
       <c r="B57" t="str">
-        <v>9206115313</v>
+        <v>7386766063</v>
       </c>
       <c r="C57" t="str">
-        <v>Croma- A056 -Bangalore-J P Nagar</v>
+        <v>VS- Ts(A.S.Rao Nagar)</v>
       </c>
       <c r="D57" t="str">
-        <v>Bangalore</v>
+        <v>Telanagna</v>
       </c>
       <c r="E57" t="str">
-        <v>1996-03-03</v>
+        <v>1999-12-11</v>
       </c>
       <c r="F57" t="str">
         <v>Single</v>
       </c>
       <c r="G57">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I57" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770874840/sec_profiles/profile_9206115313.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770723890/sec_profiles/profile_7386766063.jpg</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>ANASH AFZAL</v>
+        <v>MOHD SUFIYAN</v>
       </c>
       <c r="B58" t="str">
-        <v>7503059272</v>
+        <v>8700120182</v>
       </c>
       <c r="C58" t="str">
-        <v>Croma- A498 -Delhi-Malviya Nagar</v>
+        <v>Croma- A358 -Delhi-Pacific Mall</v>
       </c>
       <c r="D58" t="str">
         <v>New Delhi</v>
       </c>
       <c r="E58" t="str">
-        <v>1997-01-28</v>
+        <v>1991-11-11</v>
       </c>
       <c r="F58" t="str">
-        <v>Single</v>
+        <v>Married (2023-11-21)</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770870374/sec_profiles/profile_7503059272.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770992602/sec_profiles/profile_8700120182.jpg</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>MOHAN NARAYANAPPA</v>
+        <v>AJMERI SHAMVILAHEMAD DILAWARHUSEN</v>
       </c>
       <c r="B59" t="str">
-        <v>9844233492</v>
+        <v>6352720564</v>
       </c>
       <c r="C59" t="str">
-        <v>Croma- A235 -Bangalore-Gunjur</v>
+        <v>Croma- A250 -Ahmedabad-Bopal</v>
       </c>
       <c r="D59" t="str">
-        <v>Bangalore</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="E59" t="str">
-        <v>1986-04-15</v>
+        <v>2004-10-21</v>
       </c>
       <c r="F59" t="str">
-        <v>Married (2018-11-11)</v>
+        <v>Married (2027-01-25)</v>
       </c>
       <c r="G59">
         <v>26</v>
@@ -2111,27 +2111,27 @@
         <v>2</v>
       </c>
       <c r="I59" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771050549/sec_profiles/profile_9844233492.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771396193/sec_profiles/profile_6352720564.jpg</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>SAHIL ANIL PRAJAPATI</v>
+        <v>KHARJULE GAJANAN VIJAYRAO</v>
       </c>
       <c r="B60" t="str">
-        <v>7862818663</v>
+        <v>8688966550</v>
       </c>
       <c r="C60" t="str">
-        <v>Croma- A004 -Ahmedabad-Devarc</v>
+        <v>Croma- A134 -Hyderabad-AS RaoNagar</v>
       </c>
       <c r="D60" t="str">
-        <v>Ahmedabad</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E60" t="str">
-        <v>2004-12-09</v>
+        <v>1991-06-09</v>
       </c>
       <c r="F60" t="str">
-        <v>Single</v>
+        <v>Married (2025-05-06)</v>
       </c>
       <c r="G60">
         <v>37</v>
@@ -2140,401 +2140,401 @@
         <v>5</v>
       </c>
       <c r="I60" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770978849/sec_profiles/profile_7862818663.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770725160/sec_profiles/profile_8688966550.jpg</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>IMTIYAZ</v>
+        <v>RAHUL RAI</v>
       </c>
       <c r="B61" t="str">
-        <v>7838131652</v>
+        <v>8010193101</v>
       </c>
       <c r="C61" t="str">
-        <v>Croma- A532 -Delhi-CBD Shahdara</v>
+        <v>Croma- A050 -Gurugram-Dlf Mega Mall</v>
       </c>
       <c r="D61" t="str">
-        <v>New Delhi</v>
+        <v>Gurugram</v>
       </c>
       <c r="E61" t="str">
-        <v>1992-02-10</v>
+        <v>1990-08-15</v>
       </c>
       <c r="F61" t="str">
-        <v>Married (2021-07-21)</v>
+        <v>Married (2014-04-21)</v>
       </c>
       <c r="G61">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984022/sec_profiles/profile_7838131652.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771398344/sec_profiles/profile_8010193101.jpg</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>ABDUL MUBEEN KHAN</v>
+        <v>BAKASH SHAIK ALLAH</v>
       </c>
       <c r="B62" t="str">
-        <v>9137303035</v>
+        <v>9663827863</v>
       </c>
       <c r="C62" t="str">
-        <v>VS- Belapur Br</v>
+        <v>Croma- A207 -Bangalore-Hennur Road</v>
       </c>
       <c r="D62" t="str">
-        <v>Thane</v>
+        <v>Bangalore</v>
       </c>
       <c r="E62" t="str">
-        <v>1988-02-13</v>
+        <v>1990-01-03</v>
       </c>
       <c r="F62" t="str">
-        <v>Married</v>
+        <v>Married (2024-04-21)</v>
       </c>
       <c r="G62">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I62" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771259611/sec_profiles/profile_9137303035.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770898832/sec_profiles/profile_9663827863.jpg</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>AMITABH MISHRA</v>
+        <v>MUJAHID KHAN</v>
       </c>
       <c r="B63" t="str">
-        <v>7985461508</v>
+        <v>9206115313</v>
       </c>
       <c r="C63" t="str">
-        <v>Croma- A239 -Lucknow-Alambagh</v>
+        <v>Croma- A056 -Bangalore-J P Nagar</v>
       </c>
       <c r="D63" t="str">
-        <v>Lucknow</v>
+        <v>Bangalore</v>
       </c>
       <c r="E63" t="str">
-        <v>2000-08-21</v>
+        <v>1996-03-03</v>
       </c>
       <c r="F63" t="str">
         <v>Single</v>
       </c>
       <c r="G63">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770825106/sec_profiles/profile_7985461508.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770874840/sec_profiles/profile_9206115313.jpg</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>VINOD KUMAR</v>
+        <v>Abdurrazzaque Sayed</v>
       </c>
       <c r="B64" t="str">
-        <v>7503091714</v>
+        <v>8286460726</v>
       </c>
       <c r="C64" t="str">
-        <v>Croma- A042 -Delhi-Saket</v>
+        <v>Croma- A009 -Navi Mumbai-Belapur</v>
       </c>
       <c r="D64" t="str">
-        <v>New Delhi</v>
+        <v>Navi Mumbai</v>
       </c>
       <c r="E64" t="str">
-        <v>1991-04-11</v>
+        <v>1992-01-13</v>
       </c>
       <c r="F64" t="str">
-        <v>Married (2012-02-24)</v>
+        <v>Married (2022-10-30)</v>
       </c>
       <c r="G64">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H64">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I64" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984336/sec_profiles/profile_7503091714.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771396244/sec_profiles/profile_8286460726.jpg</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>GAUTAM MISHRA</v>
+        <v>ANASH AFZAL</v>
       </c>
       <c r="B65" t="str">
-        <v>6393731829</v>
+        <v>7503059272</v>
       </c>
       <c r="C65" t="str">
-        <v>Reliance Digital- 8947 - RRL CDIT Z Square Mall Kanpur</v>
+        <v>Croma- A498 -Delhi-Malviya Nagar</v>
       </c>
       <c r="D65" t="str">
-        <v>Kanpur</v>
+        <v>New Delhi</v>
       </c>
       <c r="E65" t="str">
-        <v>2002-11-03</v>
+        <v>1997-01-28</v>
       </c>
       <c r="F65" t="str">
         <v>Single</v>
       </c>
       <c r="G65">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770720319/sec_profiles/profile_6393731829.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770870374/sec_profiles/profile_7503059272.jpg</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>MOHD YOUSUF KHAN</v>
+        <v>MOHAN NARAYANAPPA</v>
       </c>
       <c r="B66" t="str">
-        <v>8528828109</v>
+        <v>9844233492</v>
       </c>
       <c r="C66" t="str">
-        <v>VS- Kalyan Br</v>
+        <v>Croma- A235 -Bangalore-Gunjur</v>
       </c>
       <c r="D66" t="str">
-        <v>Thane</v>
+        <v>Bangalore</v>
       </c>
       <c r="E66" t="str">
-        <v>1991-07-01</v>
+        <v>1986-04-15</v>
       </c>
       <c r="F66" t="str">
-        <v>Single</v>
+        <v>Married (2018-11-11)</v>
       </c>
       <c r="G66">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770915145/sec_profiles/profile_8528828109.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771050549/sec_profiles/profile_9844233492.jpg</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>NATARAJA KONAR</v>
+        <v>NANJAPPA MAHADEVA PRASAD</v>
       </c>
       <c r="B67" t="str">
-        <v>9768957824</v>
+        <v>7899180977</v>
       </c>
       <c r="C67" t="str">
-        <v>Croma- A035 -Mumbai-Ghatkopar Mall</v>
+        <v>Croma- A073 -Bangalore-Banshankari</v>
       </c>
       <c r="D67" t="str">
-        <v>Mumbai</v>
+        <v>Bangalore</v>
       </c>
       <c r="E67" t="str">
-        <v>1991-06-26</v>
+        <v>1995-08-21</v>
       </c>
       <c r="F67" t="str">
-        <v>Married (2014-01-31)</v>
+        <v>Single</v>
       </c>
       <c r="G67">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I67" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771076811/sec_profiles/profile_9768957824.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771397230/sec_profiles/profile_7899180977.jpg</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>JUBER</v>
+        <v>SAHIL ANIL PRAJAPATI</v>
       </c>
       <c r="B68" t="str">
-        <v>9044467509</v>
+        <v>7862818663</v>
       </c>
       <c r="C68" t="str">
-        <v>Croma- A259 -Lucknow-Vibhuti Khand</v>
+        <v>Croma- A004 -Ahmedabad-Devarc</v>
       </c>
       <c r="D68" t="str">
-        <v>Lucknow</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="E68" t="str">
-        <v>1990-03-16</v>
+        <v>2004-12-09</v>
       </c>
       <c r="F68" t="str">
         <v>Single</v>
       </c>
       <c r="G68">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I68" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770884748/sec_profiles/profile_9044467509.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770978849/sec_profiles/profile_7862818663.jpg</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>AVULA SURESH</v>
+        <v>IMTIYAZ</v>
       </c>
       <c r="B69" t="str">
-        <v>6300562908</v>
+        <v>7838131652</v>
       </c>
       <c r="C69" t="str">
-        <v>Croma- A088 -Bangalore-PMC Mall</v>
+        <v>Croma- A532 -Delhi-CBD Shahdara</v>
       </c>
       <c r="D69" t="str">
-        <v>Bangalore</v>
+        <v>New Delhi</v>
       </c>
       <c r="E69" t="str">
-        <v>1996-06-04</v>
+        <v>1992-02-10</v>
       </c>
       <c r="F69" t="str">
-        <v>Married (2020-04-20)</v>
+        <v>Married (2021-07-21)</v>
       </c>
       <c r="G69">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771145014/sec_profiles/profile_6300562908.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984022/sec_profiles/profile_7838131652.jpg</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>ABHISHEK HIMKAR</v>
+        <v>ABDUL MUBEEN KHAN</v>
       </c>
       <c r="B70" t="str">
-        <v>8287111172</v>
+        <v>9137303035</v>
       </c>
       <c r="C70" t="str">
-        <v>VS- Delhi(Nangloi)</v>
+        <v>VS- Belapur Br</v>
       </c>
       <c r="D70" t="str">
-        <v>Delhi</v>
+        <v>Thane</v>
       </c>
       <c r="E70" t="str">
-        <v>1997-09-03</v>
+        <v>1988-02-13</v>
       </c>
       <c r="F70" t="str">
-        <v>Married (2023-06-10)</v>
+        <v>Married</v>
       </c>
       <c r="G70">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770995983/sec_profiles/profile_8287111172.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771259611/sec_profiles/profile_9137303035.jpg</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>MOHAMMED ASIF</v>
+        <v>AMITABH MISHRA</v>
       </c>
       <c r="B71" t="str">
-        <v>6361216619</v>
+        <v>7985461508</v>
       </c>
       <c r="C71" t="str">
-        <v>Croma- A207 -Bangalore-Hennur Road</v>
+        <v>Croma- A239 -Lucknow-Alambagh</v>
       </c>
       <c r="D71" t="str">
-        <v>Bangalore</v>
+        <v>Lucknow</v>
       </c>
       <c r="E71" t="str">
-        <v>1987-05-15</v>
+        <v>2000-08-21</v>
       </c>
       <c r="F71" t="str">
-        <v>Married (2017-05-07)</v>
+        <v>Single</v>
       </c>
       <c r="G71">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I71" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770896488/sec_profiles/profile_6361216619.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770825106/sec_profiles/profile_7985461508.jpg</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>VIKAS GUPTA</v>
+        <v>VINOD KUMAR</v>
       </c>
       <c r="B72" t="str">
-        <v>9918346605</v>
+        <v>7503091714</v>
       </c>
       <c r="C72" t="str">
-        <v>Croma- A440 -Gorakhpur-Medical College Road</v>
+        <v>Croma- A042 -Delhi-Saket</v>
       </c>
       <c r="D72" t="str">
-        <v>Gorakhpur</v>
+        <v>New Delhi</v>
       </c>
       <c r="E72" t="str">
-        <v>1993-08-02</v>
+        <v>1991-04-11</v>
       </c>
       <c r="F72" t="str">
-        <v>Single</v>
+        <v>Married (2012-02-24)</v>
       </c>
       <c r="G72">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I72" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771007168/sec_profiles/profile_9918346605.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984336/sec_profiles/profile_7503091714.jpg</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>KUMARESAN GUNASEKARAN</v>
+        <v>GAUTAM MISHRA</v>
       </c>
       <c r="B73" t="str">
-        <v>9710735625</v>
+        <v>6393731829</v>
       </c>
       <c r="C73" t="str">
-        <v>Croma- A181 -Chennai-Chrompet</v>
+        <v>Reliance Digital- 8947 - RRL CDIT Z Square Mall Kanpur</v>
       </c>
       <c r="D73" t="str">
-        <v>Chennai</v>
+        <v>Kanpur</v>
       </c>
       <c r="E73" t="str">
-        <v>1993-02-13</v>
+        <v>2002-11-03</v>
       </c>
       <c r="F73" t="str">
-        <v>Married (2017-09-10)</v>
+        <v>Single</v>
       </c>
       <c r="G73">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872234/sec_profiles/profile_9710735625.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770720319/sec_profiles/profile_6393731829.jpg</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>RAJA RAJAK</v>
+        <v>MOHD YOUSUF KHAN</v>
       </c>
       <c r="B74" t="str">
-        <v>8709845665</v>
+        <v>8528828109</v>
       </c>
       <c r="C74" t="str">
-        <v>Croma- A380 -Jamshedpur-Bistupur</v>
+        <v>VS- Kalyan Br</v>
       </c>
       <c r="D74" t="str">
-        <v>Jamshedpur</v>
+        <v>Thane</v>
       </c>
       <c r="E74" t="str">
-        <v>1994-01-15</v>
+        <v>1991-07-01</v>
       </c>
       <c r="F74" t="str">
         <v>Single</v>
@@ -2546,865 +2546,865 @@
         <v>1</v>
       </c>
       <c r="I74" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770806083/sec_profiles/profile_8709845665.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770915145/sec_profiles/profile_8528828109.jpg</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>RAGHVENDRA SHARMA</v>
+        <v>NATARAJA KONAR</v>
       </c>
       <c r="B75" t="str">
-        <v>9926434514</v>
+        <v>9768957824</v>
       </c>
       <c r="C75" t="str">
-        <v>Croma- A182 -Gwalior-City Center</v>
+        <v>Croma- A035 -Mumbai-Ghatkopar Mall</v>
       </c>
       <c r="D75" t="str">
-        <v>Gwalior</v>
+        <v>Mumbai</v>
       </c>
       <c r="E75" t="str">
-        <v>1986-11-29</v>
+        <v>1991-06-26</v>
       </c>
       <c r="F75" t="str">
-        <v>Married (2011-07-10)</v>
+        <v>Married (2014-01-31)</v>
       </c>
       <c r="G75">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771249616/sec_profiles/profile_9926434514.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771076811/sec_profiles/profile_9768957824.jpg</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>RANGENAHALLI SHIVARAJU MADHU</v>
+        <v>JUBER</v>
       </c>
       <c r="B76" t="str">
-        <v>8971175512</v>
+        <v>9044467509</v>
       </c>
       <c r="C76" t="str">
-        <v>Croma- A058 -Bangalore-Koramangala</v>
+        <v>Croma- A259 -Lucknow-Vibhuti Khand</v>
       </c>
       <c r="D76" t="str">
-        <v>Bangalore</v>
+        <v>Lucknow</v>
       </c>
       <c r="E76" t="str">
-        <v>1993-07-28</v>
+        <v>1990-03-16</v>
       </c>
       <c r="F76" t="str">
-        <v>Married (2026-05-13)</v>
+        <v>Single</v>
       </c>
       <c r="G76">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I76" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770875952/sec_profiles/profile_8971175512.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770884748/sec_profiles/profile_9044467509.jpg</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>KANCHAN</v>
+        <v>AVULA SURESH</v>
       </c>
       <c r="B77" t="str">
-        <v>9928563176</v>
+        <v>6300562908</v>
       </c>
       <c r="C77" t="str">
-        <v>Croma- A465 -Jaipur-Tonk Road</v>
+        <v>Croma- A088 -Bangalore-PMC Mall</v>
       </c>
       <c r="D77" t="str">
-        <v>Jaipur</v>
+        <v>Bangalore</v>
       </c>
       <c r="E77" t="str">
-        <v>2026-02-10</v>
+        <v>1996-06-04</v>
       </c>
       <c r="F77" t="str">
-        <v>Single</v>
+        <v>Married (2020-04-20)</v>
       </c>
       <c r="G77">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771066240/sec_profiles/profile_9928563176.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771145014/sec_profiles/profile_6300562908.jpg</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>SAMIR NAYAK</v>
+        <v>ABHISHEK HIMKAR</v>
       </c>
       <c r="B78" t="str">
-        <v>8217566551</v>
+        <v>8287111172</v>
       </c>
       <c r="C78" t="str">
-        <v>Croma- A363 -Bangalore-Nagavara</v>
+        <v>VS- Delhi(Nangloi)</v>
       </c>
       <c r="D78" t="str">
-        <v>Bangalore</v>
+        <v>Delhi</v>
       </c>
       <c r="E78" t="str">
-        <v>1996-11-20</v>
+        <v>1997-09-03</v>
       </c>
       <c r="F78" t="str">
-        <v>Single</v>
+        <v>Married (2023-06-10)</v>
       </c>
       <c r="G78">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I78" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770883184/sec_profiles/profile_8217566551.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770995983/sec_profiles/profile_8287111172.jpg</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>DIPAK JAYRAM NAYDU</v>
+        <v>YASHWANT SINGH</v>
       </c>
       <c r="B79" t="str">
-        <v>9529500149</v>
+        <v>8896365474</v>
       </c>
       <c r="C79" t="str">
-        <v>Croma- A692 -Sangli-Ram Mandir Chowk</v>
+        <v>Croma- A039 -Mumbai-Sion</v>
       </c>
       <c r="D79" t="str">
-        <v>Sangli</v>
+        <v>Mumbai</v>
       </c>
       <c r="E79" t="str">
-        <v>1999-11-28</v>
+        <v>1997-08-15</v>
       </c>
       <c r="F79" t="str">
         <v>Single</v>
       </c>
       <c r="G79">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771271135/sec_profiles/profile_9529500149.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771397455/sec_profiles/profile_8896365474.jpg</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>HUSSAINAR NAVASIYA</v>
+        <v>MOHAMMED ASIF</v>
       </c>
       <c r="B80" t="str">
-        <v>8939201199</v>
+        <v>6361216619</v>
       </c>
       <c r="C80" t="str">
-        <v>Croma- A040 -Chennai-T Nagar</v>
+        <v>Croma- A207 -Bangalore-Hennur Road</v>
       </c>
       <c r="D80" t="str">
-        <v>Chennai</v>
+        <v>Bangalore</v>
       </c>
       <c r="E80" t="str">
-        <v>1989-05-08</v>
+        <v>1987-05-15</v>
       </c>
       <c r="F80" t="str">
-        <v>Married (2015-01-29)</v>
+        <v>Married (2017-05-07)</v>
       </c>
       <c r="G80">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771046776/sec_profiles/profile_8939201199.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770896488/sec_profiles/profile_6361216619.jpg</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>ANTIMA SINGH</v>
+        <v>VIKAS GUPTA</v>
       </c>
       <c r="B81" t="str">
-        <v>8882694435</v>
+        <v>9918346605</v>
       </c>
       <c r="C81" t="str">
-        <v>Croma- A388 -Lucknow-Palassio Mall</v>
+        <v>Croma- A440 -Gorakhpur-Medical College Road</v>
       </c>
       <c r="D81" t="str">
-        <v>Lucknow</v>
+        <v>Gorakhpur</v>
       </c>
       <c r="E81" t="str">
-        <v>1997-11-15</v>
+        <v>1993-08-02</v>
       </c>
       <c r="F81" t="str">
-        <v>Married (2024-02-12)</v>
+        <v>Single</v>
       </c>
       <c r="G81">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770719630/sec_profiles/profile_8882694435.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771007168/sec_profiles/profile_9918346605.jpg</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>ROHIT</v>
+        <v>KUMARESAN GUNASEKARAN</v>
       </c>
       <c r="B82" t="str">
-        <v>9560254843</v>
+        <v>9710735625</v>
       </c>
       <c r="C82" t="str">
-        <v>Croma- A020 -Delhi-Rohini</v>
+        <v>Croma- A181 -Chennai-Chrompet</v>
       </c>
       <c r="D82" t="str">
-        <v>New Delhi</v>
+        <v>Chennai</v>
       </c>
       <c r="E82" t="str">
-        <v>2000-03-01</v>
+        <v>1993-02-13</v>
       </c>
       <c r="F82" t="str">
-        <v>Single</v>
+        <v>Married (2017-09-10)</v>
       </c>
       <c r="G82">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I82" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771001283/sec_profiles/profile_9560254843.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872234/sec_profiles/profile_9710735625.jpg</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>SIDDANTAPU RAMYA</v>
+        <v>GOVINDA MAHILANGE</v>
       </c>
       <c r="B83" t="str">
-        <v>7093299335</v>
+        <v>9713096992</v>
       </c>
       <c r="C83" t="str">
-        <v>VS- Ap(Rajahmundry-Jln Road)</v>
+        <v>Croma- A219 -Raipur-VIP Chowk</v>
       </c>
       <c r="D83" t="str">
-        <v>Andhra Pradesh</v>
+        <v>Raipur</v>
       </c>
       <c r="E83" t="str">
-        <v>2001-11-16</v>
+        <v>1990-08-07</v>
       </c>
       <c r="F83" t="str">
-        <v>Single</v>
+        <v>Married (2013-07-04)</v>
       </c>
       <c r="G83">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I83" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771242270/sec_profiles/profile_7093299335.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771400071/sec_profiles/profile_9713096992.jpg</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Dinesh kumar</v>
+        <v>RAJA RAJAK</v>
       </c>
       <c r="B84" t="str">
-        <v>9873662003</v>
+        <v>8709845665</v>
       </c>
       <c r="C84" t="str">
-        <v>Croma- A064 -Delhi-East Of Kailash</v>
+        <v>Croma- A380 -Jamshedpur-Bistupur</v>
       </c>
       <c r="D84" t="str">
-        <v>New Delhi</v>
+        <v>Jamshedpur</v>
       </c>
       <c r="E84" t="str">
-        <v>1980-07-22</v>
+        <v>1994-01-15</v>
       </c>
       <c r="F84" t="str">
-        <v>Married (2012-02-10)</v>
+        <v>Single</v>
       </c>
       <c r="G84">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770727691/sec_profiles/profile_9873662003.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770806083/sec_profiles/profile_8709845665.jpg</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Syed Mohsin Hasan</v>
+        <v>RAGHVENDRA SHARMA</v>
       </c>
       <c r="B85" t="str">
-        <v>8957535339</v>
+        <v>9926434514</v>
       </c>
       <c r="C85" t="str">
-        <v>Croma- A371 -Lucknow-Faizabad Road</v>
+        <v>Croma- A182 -Gwalior-City Center</v>
       </c>
       <c r="D85" t="str">
-        <v>Lucknow</v>
+        <v>Gwalior</v>
       </c>
       <c r="E85" t="str">
-        <v>1988-06-25</v>
+        <v>1986-11-29</v>
       </c>
       <c r="F85" t="str">
-        <v>Married (2017-04-05)</v>
+        <v>Married (2011-07-10)</v>
       </c>
       <c r="G85">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770725688/sec_profiles/profile_8957535339.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771249616/sec_profiles/profile_9926434514.jpg</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>MOHAMMED JAHANGIR ALI</v>
+        <v>RANGENAHALLI SHIVARAJU MADHU</v>
       </c>
       <c r="B86" t="str">
-        <v>8019335947</v>
+        <v>8971175512</v>
       </c>
       <c r="C86" t="str">
-        <v>VS- Ts(Tolichowki- Aditya Ngr)</v>
+        <v>Croma- A058 -Bangalore-Koramangala</v>
       </c>
       <c r="D86" t="str">
-        <v>Telanagna</v>
+        <v>Bangalore</v>
       </c>
       <c r="E86" t="str">
-        <v>1991-05-24</v>
+        <v>1993-07-28</v>
       </c>
       <c r="F86" t="str">
-        <v>Single</v>
+        <v>Married (2026-05-13)</v>
       </c>
       <c r="G86">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770723960/sec_profiles/profile_8019335947.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770875952/sec_profiles/profile_8971175512.jpg</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>UJJWAL KUMAR</v>
+        <v>KANCHAN</v>
       </c>
       <c r="B87" t="str">
-        <v>8252446946</v>
+        <v>9928563176</v>
       </c>
       <c r="C87" t="str">
-        <v>Croma- A713 -Ranchi-Kanke Road</v>
+        <v>Croma- A465 -Jaipur-Tonk Road</v>
       </c>
       <c r="D87" t="str">
-        <v>Ranchi</v>
+        <v>Jaipur</v>
       </c>
       <c r="E87" t="str">
-        <v>2000-07-05</v>
+        <v>2026-02-10</v>
       </c>
       <c r="F87" t="str">
         <v>Single</v>
       </c>
       <c r="G87">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770919101/sec_profiles/profile_8252446946.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771066240/sec_profiles/profile_9928563176.jpg</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>FARAZ NADEEM</v>
+        <v>SAMIR NAYAK</v>
       </c>
       <c r="B88" t="str">
-        <v>7827974838</v>
+        <v>8217566551</v>
       </c>
       <c r="C88" t="str">
-        <v>Croma- A151 -Noida-Mall of India</v>
+        <v>Croma- A363 -Bangalore-Nagavara</v>
       </c>
       <c r="D88" t="str">
-        <v>Noida</v>
+        <v>Bangalore</v>
       </c>
       <c r="E88" t="str">
-        <v>1990-11-21</v>
+        <v>1996-11-20</v>
       </c>
       <c r="F88" t="str">
-        <v>Married (2017-12-05)</v>
+        <v>Single</v>
       </c>
       <c r="G88">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770975622/sec_profiles/profile_7827974838.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770883184/sec_profiles/profile_8217566551.jpg</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>YEDLA MEGHANA</v>
+        <v>DIPAK JAYRAM NAYDU</v>
       </c>
       <c r="B89" t="str">
-        <v>8249426923</v>
+        <v>9529500149</v>
       </c>
       <c r="C89" t="str">
-        <v>VS- Ts(Jubilee Hills)</v>
+        <v>Croma- A692 -Sangli-Ram Mandir Chowk</v>
       </c>
       <c r="D89" t="str">
-        <v>Telanagna</v>
+        <v>Sangli</v>
       </c>
       <c r="E89" t="str">
-        <v>1998-02-12</v>
+        <v>1999-11-28</v>
       </c>
       <c r="F89" t="str">
         <v>Single</v>
       </c>
       <c r="G89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770724971/sec_profiles/profile_8249426923.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771271135/sec_profiles/profile_9529500149.jpg</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Rohit Kumar</v>
+        <v>MOHAMAD SHADAB AHMAD</v>
       </c>
       <c r="B90" t="str">
-        <v>9999443606</v>
+        <v>9871392425</v>
       </c>
       <c r="C90" t="str">
-        <v>VS- Haryana(Jacobpura) Br</v>
+        <v>Croma- A135 -Noida-Logix Mall</v>
       </c>
       <c r="D90" t="str">
-        <v>Gurgaon</v>
+        <v>Noida</v>
       </c>
       <c r="E90" t="str">
-        <v>1997-07-17</v>
+        <v>1986-09-26</v>
       </c>
       <c r="F90" t="str">
-        <v>Single</v>
+        <v>Married (2024-04-11)</v>
       </c>
       <c r="G90">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I90" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770870888/sec_profiles/profile_9999443606.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771401749/sec_profiles/profile_9871392425.jpg</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>HARSHDEEP SINGH</v>
+        <v>HUSSAINAR NAVASIYA</v>
       </c>
       <c r="B91" t="str">
-        <v>9956644505</v>
+        <v>8939201199</v>
       </c>
       <c r="C91" t="str">
-        <v>Croma- A284 -Agra-SRK Mall</v>
+        <v>Croma- A040 -Chennai-T Nagar</v>
       </c>
       <c r="D91" t="str">
-        <v>Agra</v>
+        <v>Chennai</v>
       </c>
       <c r="E91" t="str">
-        <v>2003-12-10</v>
+        <v>1989-05-08</v>
       </c>
       <c r="F91" t="str">
-        <v>Single</v>
+        <v>Married (2015-01-29)</v>
       </c>
       <c r="G91">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984824/sec_profiles/profile_9956644505.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771046776/sec_profiles/profile_8939201199.jpg</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>AMIN UL RAHEMAN</v>
+        <v>ANTIMA SINGH</v>
       </c>
       <c r="B92" t="str">
-        <v>9553553006</v>
+        <v>8882694435</v>
       </c>
       <c r="C92" t="str">
-        <v>Croma- A430 -Hyderabad-Airport 2</v>
+        <v>Croma- A388 -Lucknow-Palassio Mall</v>
       </c>
       <c r="D92" t="str">
-        <v>Hyderabad</v>
+        <v>Lucknow</v>
       </c>
       <c r="E92" t="str">
-        <v>1992-07-02</v>
+        <v>1997-11-15</v>
       </c>
       <c r="F92" t="str">
-        <v>Married (2016-04-16)</v>
+        <v>Married (2024-02-12)</v>
       </c>
       <c r="G92">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770695961/sec_profiles/profile_9553553006.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770719630/sec_profiles/profile_8882694435.jpg</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MOHD AMER</v>
+        <v>ROHIT</v>
       </c>
       <c r="B93" t="str">
-        <v>9676530082</v>
+        <v>9560254843</v>
       </c>
       <c r="C93" t="str">
-        <v>Croma- A091 -Hyderabad-Kondapur</v>
+        <v>Croma- A020 -Delhi-Rohini</v>
       </c>
       <c r="D93" t="str">
-        <v>Hyderabad</v>
+        <v>New Delhi</v>
       </c>
       <c r="E93" t="str">
-        <v>2000-08-11</v>
+        <v>2000-03-01</v>
       </c>
       <c r="F93" t="str">
         <v>Single</v>
       </c>
       <c r="G93">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I93" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770975277/sec_profiles/profile_9676530082.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771001283/sec_profiles/profile_9560254843.jpg</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>ANAS ABRAR KHAN</v>
+        <v>SIDDANTAPU RAMYA</v>
       </c>
       <c r="B94" t="str">
-        <v>9833101221</v>
+        <v>7093299335</v>
       </c>
       <c r="C94" t="str">
-        <v>VS- Chembur Br</v>
+        <v>VS- Ap(Rajahmundry-Jln Road)</v>
       </c>
       <c r="D94" t="str">
-        <v>Mumbai</v>
+        <v>Andhra Pradesh</v>
       </c>
       <c r="E94" t="str">
-        <v>1995-12-01</v>
+        <v>2001-11-16</v>
       </c>
       <c r="F94" t="str">
-        <v>Married (2020-02-03)</v>
+        <v>Single</v>
       </c>
       <c r="G94">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770901040/sec_profiles/profile_9833101221.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771242270/sec_profiles/profile_7093299335.jpg</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>RAVI VARSHNEY</v>
+        <v>Dinesh kumar</v>
       </c>
       <c r="B95" t="str">
-        <v>8449060006</v>
+        <v>9873662003</v>
       </c>
       <c r="C95" t="str">
-        <v>Croma- A284 -Agra-SRK Mall</v>
+        <v>Croma- A064 -Delhi-East Of Kailash</v>
       </c>
       <c r="D95" t="str">
-        <v>Agra</v>
+        <v>New Delhi</v>
       </c>
       <c r="E95" t="str">
-        <v>1989-06-15</v>
+        <v>1980-07-22</v>
       </c>
       <c r="F95" t="str">
-        <v>Married (2015-06-06)</v>
+        <v>Married (2012-02-10)</v>
       </c>
       <c r="G95">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770717166/sec_profiles/profile_8449060006.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770727691/sec_profiles/profile_9873662003.jpg</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>LALIT KUMAR</v>
+        <v>Syed Mohsin Hasan</v>
       </c>
       <c r="B96" t="str">
-        <v>7742041540</v>
+        <v>8957535339</v>
       </c>
       <c r="C96" t="str">
-        <v>Croma- A283 -Jaipur-Vaishali Nagar</v>
+        <v>Croma- A371 -Lucknow-Faizabad Road</v>
       </c>
       <c r="D96" t="str">
-        <v>Jaipur</v>
+        <v>Lucknow</v>
       </c>
       <c r="E96" t="str">
-        <v>1998-10-08</v>
+        <v>1988-06-25</v>
       </c>
       <c r="F96" t="str">
-        <v>Single</v>
+        <v>Married (2017-04-05)</v>
       </c>
       <c r="G96">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770739648/sec_profiles/profile_7742041540.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770725688/sec_profiles/profile_8957535339.jpg</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>AKASH</v>
+        <v>MOHAMMED JAHANGIR ALI</v>
       </c>
       <c r="B97" t="str">
-        <v>7838716016</v>
+        <v>8019335947</v>
       </c>
       <c r="C97" t="str">
-        <v>Croma- A336 -Delhi-Shahdara</v>
+        <v>VS- Ts(Tolichowki- Aditya Ngr)</v>
       </c>
       <c r="D97" t="str">
-        <v>New Delhi</v>
+        <v>Telanagna</v>
       </c>
       <c r="E97" t="str">
-        <v>2003-08-10</v>
+        <v>1991-05-24</v>
       </c>
       <c r="F97" t="str">
         <v>Single</v>
       </c>
       <c r="G97">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I97" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770811998/sec_profiles/profile_7838716016.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770723960/sec_profiles/profile_8019335947.jpg</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>JAY BHADRESH SEJPAL</v>
+        <v>UJJWAL KUMAR</v>
       </c>
       <c r="B98" t="str">
-        <v>9820331001</v>
+        <v>8252446946</v>
       </c>
       <c r="C98" t="str">
-        <v>Croma- A035 -Mumbai-Ghatkopar Mall</v>
+        <v>Croma- A713 -Ranchi-Kanke Road</v>
       </c>
       <c r="D98" t="str">
-        <v>Mumbai</v>
+        <v>Ranchi</v>
       </c>
       <c r="E98" t="str">
-        <v>1990-12-20</v>
+        <v>2000-07-05</v>
       </c>
       <c r="F98" t="str">
-        <v>Married (2017-04-28)</v>
+        <v>Single</v>
       </c>
       <c r="G98">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771071337/sec_profiles/profile_9820331001.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770919101/sec_profiles/profile_8252446946.jpg</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Rishabh singh</v>
+        <v>FARAZ NADEEM</v>
       </c>
       <c r="B99" t="str">
-        <v>7275313809</v>
+        <v>7827974838</v>
       </c>
       <c r="C99" t="str">
-        <v>Croma- A371 -Lucknow-Faizabad Road</v>
+        <v>Croma- A151 -Noida-Mall of India</v>
       </c>
       <c r="D99" t="str">
-        <v>Lucknow</v>
+        <v>Noida</v>
       </c>
       <c r="E99" t="str">
-        <v>2002-11-30</v>
+        <v>1990-11-21</v>
       </c>
       <c r="F99" t="str">
-        <v>Single</v>
+        <v>Married (2017-12-05)</v>
       </c>
       <c r="G99">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771055412/sec_profiles/profile_7275313809.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770975622/sec_profiles/profile_7827974838.jpg</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Saif Khan</v>
+        <v>YEDLA MEGHANA</v>
       </c>
       <c r="B100" t="str">
-        <v>8858816309</v>
+        <v>8249426923</v>
       </c>
       <c r="C100" t="str">
-        <v>VS- Surat(Parvat Patiya)</v>
+        <v>VS- Ts(Jubilee Hills)</v>
       </c>
       <c r="D100" t="str">
-        <v>Surat</v>
+        <v>Telanagna</v>
       </c>
       <c r="E100" t="str">
-        <v>2003-01-01</v>
+        <v>1998-02-12</v>
       </c>
       <c r="F100" t="str">
         <v>Single</v>
       </c>
       <c r="G100">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771069983/sec_profiles/profile_8858816309.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770724971/sec_profiles/profile_8249426923.jpg</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Rajbhar jubin vijayprakash</v>
+        <v>Rohit Kumar</v>
       </c>
       <c r="B101" t="str">
-        <v>8180993683</v>
+        <v>9999443606</v>
       </c>
       <c r="C101" t="str">
-        <v>VS- Boisar Br</v>
+        <v>VS- Haryana(Jacobpura) Br</v>
       </c>
       <c r="D101" t="str">
-        <v>Mumbai</v>
+        <v>Gurgaon</v>
       </c>
       <c r="E101" t="str">
-        <v>2002-01-01</v>
+        <v>1997-07-17</v>
       </c>
       <c r="F101" t="str">
         <v>Single</v>
       </c>
       <c r="G101">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I101" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770873566/sec_profiles/profile_8180993683.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770870888/sec_profiles/profile_9999443606.jpg</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>MOHD KAMRAN HYDER</v>
+        <v>HARSHDEEP SINGH</v>
       </c>
       <c r="B102" t="str">
-        <v>9700386014</v>
+        <v>9956644505</v>
       </c>
       <c r="C102" t="str">
-        <v>Croma- A292 -Hyderabad-Dilsukhnagar</v>
+        <v>Croma- A284 -Agra-SRK Mall</v>
       </c>
       <c r="D102" t="str">
-        <v>Hyderabad</v>
+        <v>Agra</v>
       </c>
       <c r="E102" t="str">
-        <v>1999-05-03</v>
+        <v>2003-12-10</v>
       </c>
       <c r="F102" t="str">
         <v>Single</v>
       </c>
       <c r="G102">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771219789/sec_profiles/profile_9700386014.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984824/sec_profiles/profile_9956644505.jpg</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>NAVALKUMAR RAMESHBHAI LAISATWAR</v>
+        <v>AMIN UL RAHEMAN</v>
       </c>
       <c r="B103" t="str">
-        <v>9099798066</v>
+        <v>9553553006</v>
       </c>
       <c r="C103" t="str">
-        <v>VS- Ahmedabad(Dev Arc) Br</v>
+        <v>Croma- A430 -Hyderabad-Airport 2</v>
       </c>
       <c r="D103" t="str">
-        <v>Ahmedabad</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E103" t="str">
-        <v>1991-10-11</v>
+        <v>1992-07-02</v>
       </c>
       <c r="F103" t="str">
-        <v>Single</v>
+        <v>Married (2016-04-16)</v>
       </c>
       <c r="G103">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I103" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872854/sec_profiles/profile_9099798066.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770695961/sec_profiles/profile_9553553006.jpg</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>SURAJ PANDEY</v>
+        <v>MOHD AMER</v>
       </c>
       <c r="B104" t="str">
-        <v>6306004845</v>
+        <v>9676530082</v>
       </c>
       <c r="C104" t="str">
-        <v>Reliance Digital- TLL1 - RRL CDIT Vinpalace Ring Road</v>
+        <v>Croma- A091 -Hyderabad-Kondapur</v>
       </c>
       <c r="D104" t="str">
-        <v>Lucknow</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E104" t="str">
-        <v>1998-10-10</v>
+        <v>2000-08-11</v>
       </c>
       <c r="F104" t="str">
         <v>Single</v>
@@ -3416,172 +3416,172 @@
         <v>0</v>
       </c>
       <c r="I104" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770970572/sec_profiles/profile_6306004845.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770975277/sec_profiles/profile_9676530082.jpg</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>ABHISHEK SHARMA</v>
+        <v>ANAS ABRAR KHAN</v>
       </c>
       <c r="B105" t="str">
-        <v>8707294442</v>
+        <v>9833101221</v>
       </c>
       <c r="C105" t="str">
-        <v>Reliance Digital- TZ8C - RRL CDIT- GT Road Gu</v>
+        <v>VS- Chembur Br</v>
       </c>
       <c r="D105" t="str">
-        <v>Kanpur</v>
+        <v>Mumbai</v>
       </c>
       <c r="E105" t="str">
-        <v>1994-07-07</v>
+        <v>1995-12-01</v>
       </c>
       <c r="F105" t="str">
-        <v>Married (2022-02-05)</v>
+        <v>Married (2020-02-03)</v>
       </c>
       <c r="G105">
         <v>25</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771046874/sec_profiles/profile_8707294442.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770901040/sec_profiles/profile_9833101221.jpg</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>PAWAN KUMAR VERMA</v>
+        <v>RAVI VARSHNEY</v>
       </c>
       <c r="B106" t="str">
-        <v>8470802092</v>
+        <v>8449060006</v>
       </c>
       <c r="C106" t="str">
-        <v>Reliance Digital- 6744 - RRL CDIT Sector 29 Gurgaon</v>
+        <v>Croma- A284 -Agra-SRK Mall</v>
       </c>
       <c r="D106" t="str">
-        <v>Gurgaon</v>
+        <v>Agra</v>
       </c>
       <c r="E106" t="str">
-        <v>1990-04-04</v>
+        <v>1989-06-15</v>
       </c>
       <c r="F106" t="str">
-        <v>Married (2009-05-27)</v>
+        <v>Married (2015-06-06)</v>
       </c>
       <c r="G106">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770983493/sec_profiles/profile_8470802092.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770717166/sec_profiles/profile_8449060006.jpg</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>BABLA NIRANJAN SINGH</v>
+        <v>LALIT KUMAR</v>
       </c>
       <c r="B107" t="str">
-        <v>7678005015</v>
+        <v>7742041540</v>
       </c>
       <c r="C107" t="str">
-        <v>Reliance Digital- TB88 - RRL CDIT Seawoods Grand Centra</v>
+        <v>Croma- A283 -Jaipur-Vaishali Nagar</v>
       </c>
       <c r="D107" t="str">
-        <v>Mumbai</v>
+        <v>Jaipur</v>
       </c>
       <c r="E107" t="str">
-        <v>1996-09-06</v>
+        <v>1998-10-08</v>
       </c>
       <c r="F107" t="str">
-        <v>Married (2025-12-15)</v>
+        <v>Single</v>
       </c>
       <c r="G107">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770986252/sec_profiles/profile_7678005015.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770739648/sec_profiles/profile_7742041540.jpg</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Bha</v>
+        <v>THIMMAIAH GOVINDAPPA</v>
       </c>
       <c r="B108" t="str">
-        <v>8209497281</v>
+        <v>8147888964</v>
       </c>
       <c r="C108" t="str">
-        <v>Reliance Digital- TY11 - RRL CDIT Paras Prime Udaipur</v>
+        <v>Croma- A591 -Tumkur-BH Road</v>
       </c>
       <c r="D108" t="str">
-        <v>Udaipur</v>
+        <v>Tumkur</v>
       </c>
       <c r="E108" t="str">
-        <v>2006-01-01</v>
+        <v>1989-06-10</v>
       </c>
       <c r="F108" t="str">
-        <v>Single</v>
+        <v>Married (2025-03-23)</v>
       </c>
       <c r="G108">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770693702/sec_profiles/profile_8209497281.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771401196/sec_profiles/profile_8147888964.jpg</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>SEYYAD MOHAMMAD ADNAN</v>
+        <v>AKASH</v>
       </c>
       <c r="B109" t="str">
-        <v>9549430917</v>
+        <v>7838716016</v>
       </c>
       <c r="C109" t="str">
-        <v>Unknown</v>
+        <v>Croma- A336 -Delhi-Shahdara</v>
       </c>
       <c r="D109" t="str">
-        <v>Unknown</v>
+        <v>New Delhi</v>
       </c>
       <c r="E109" t="str">
-        <v>2000-04-26</v>
+        <v>2003-08-10</v>
       </c>
       <c r="F109" t="str">
-        <v>Married (2025-11-04)</v>
+        <v>Single</v>
       </c>
       <c r="G109">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770694248/sec_profiles/profile_9549430917.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770811998/sec_profiles/profile_7838716016.jpg</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>MAHESH MOHAN GANBAWALE</v>
+        <v>JAY BHADRESH SEJPAL</v>
       </c>
       <c r="B110" t="str">
-        <v>8999109006</v>
+        <v>9820331001</v>
       </c>
       <c r="C110" t="str">
-        <v>Reliance Digital- T2QO - RRL CDIT Sangli Mir</v>
+        <v>Croma- A035 -Mumbai-Ghatkopar Mall</v>
       </c>
       <c r="D110" t="str">
-        <v>SANGLI</v>
+        <v>Mumbai</v>
       </c>
       <c r="E110" t="str">
-        <v>1992-03-23</v>
+        <v>1990-12-20</v>
       </c>
       <c r="F110" t="str">
-        <v>Single</v>
+        <v>Married (2017-04-28)</v>
       </c>
       <c r="G110">
         <v>23</v>
@@ -3590,82 +3590,82 @@
         <v>1</v>
       </c>
       <c r="I110" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770879051/sec_profiles/profile_8999109006.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771071337/sec_profiles/profile_9820331001.jpg</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>SUTHEESH SURESH</v>
+        <v>Rishabh singh</v>
       </c>
       <c r="B111" t="str">
-        <v>9360784468</v>
+        <v>7275313809</v>
       </c>
       <c r="C111" t="str">
-        <v>Reliance Digital- T592 - RIL Mall Nagarcoil</v>
+        <v>Croma- A371 -Lucknow-Faizabad Road</v>
       </c>
       <c r="D111" t="str">
-        <v>Nagarcoil</v>
+        <v>Lucknow</v>
       </c>
       <c r="E111" t="str">
-        <v>2002-11-17</v>
+        <v>2002-11-30</v>
       </c>
       <c r="F111" t="str">
-        <v>Married (2025-08-28)</v>
+        <v>Single</v>
       </c>
       <c r="G111">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I111" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770718637/sec_profiles/profile_9360784468.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771055412/sec_profiles/profile_7275313809.jpg</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Mohanapriya</v>
+        <v>Saif Khan</v>
       </c>
       <c r="B112" t="str">
-        <v>7339365623</v>
+        <v>8858816309</v>
       </c>
       <c r="C112" t="str">
-        <v>Reliance Digital- 8979 - RRL CDIT Ambattur Chennai</v>
+        <v>VS- Surat(Parvat Patiya)</v>
       </c>
       <c r="D112" t="str">
-        <v>Chennai</v>
+        <v>Surat</v>
       </c>
       <c r="E112" t="str">
-        <v>1997-02-23</v>
+        <v>2003-01-01</v>
       </c>
       <c r="F112" t="str">
-        <v>Married (2026-09-12)</v>
+        <v>Single</v>
       </c>
       <c r="G112">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I112" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771178673/sec_profiles/profile_7339365623.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771069983/sec_profiles/profile_8858816309.jpg</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Rahul kumar mishra</v>
+        <v>Rajbhar jubin vijayprakash</v>
       </c>
       <c r="B113" t="str">
-        <v>9554483884</v>
+        <v>8180993683</v>
       </c>
       <c r="C113" t="str">
-        <v>Reliance Digital- T2QM - RRL CDIT Ratan Khan</v>
+        <v>VS- Boisar Br</v>
       </c>
       <c r="D113" t="str">
-        <v>Lucknow</v>
+        <v>Mumbai</v>
       </c>
       <c r="E113" t="str">
-        <v>1995-07-21</v>
+        <v>2002-01-01</v>
       </c>
       <c r="F113" t="str">
         <v>Single</v>
@@ -3677,172 +3677,172 @@
         <v>0</v>
       </c>
       <c r="I113" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770889126/sec_profiles/profile_9554483884.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770873566/sec_profiles/profile_8180993683.jpg</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>ARPUTHARAJ VASANTHRAJ</v>
+        <v>MOHD KAMRAN HYDER</v>
       </c>
       <c r="B114" t="str">
-        <v>9385470206</v>
+        <v>9700386014</v>
       </c>
       <c r="C114" t="str">
-        <v>Reliance Digital- 3898 - RRL CDIT Avadi Chennai</v>
+        <v>Croma- A292 -Hyderabad-Dilsukhnagar</v>
       </c>
       <c r="D114" t="str">
-        <v>Chennai</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E114" t="str">
-        <v>2000-06-02</v>
+        <v>1999-05-03</v>
       </c>
       <c r="F114" t="str">
-        <v>Married (2022-07-04)</v>
+        <v>Single</v>
       </c>
       <c r="G114">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712604/sec_profiles/profile_9385470206.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771219789/sec_profiles/profile_9700386014.jpg</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Vinokarthick</v>
+        <v>NAVALKUMAR RAMESHBHAI LAISATWAR</v>
       </c>
       <c r="B115" t="str">
-        <v>9344374118</v>
+        <v>9099798066</v>
       </c>
       <c r="C115" t="str">
-        <v>Unknown</v>
+        <v>VS- Ahmedabad(Dev Arc) Br</v>
       </c>
       <c r="D115" t="str">
-        <v>Unknown</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="E115" t="str">
-        <v>1996-07-20</v>
+        <v>1991-10-11</v>
       </c>
       <c r="F115" t="str">
         <v>Single</v>
       </c>
       <c r="G115">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I115" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770703436/sec_profiles/profile_9344374118.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872854/sec_profiles/profile_9099798066.jpg</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>PRADYUMNA KUMAR DALAI</v>
+        <v>SURAJ PANDEY</v>
       </c>
       <c r="B116" t="str">
-        <v>9040605606</v>
+        <v>6306004845</v>
       </c>
       <c r="C116" t="str">
-        <v>Reliance Digital- 7900 - MINI GOPABANDHU</v>
+        <v>Reliance Digital- TLL1 - RRL CDIT Vinpalace Ring Road</v>
       </c>
       <c r="D116" t="str">
-        <v>Bhubaneswar</v>
+        <v>Lucknow</v>
       </c>
       <c r="E116" t="str">
-        <v>1995-05-04</v>
+        <v>1998-10-10</v>
       </c>
       <c r="F116" t="str">
         <v>Single</v>
       </c>
       <c r="G116">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770829281/sec_profiles/profile_9040605606.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770970572/sec_profiles/profile_6306004845.jpg</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>BOMSHETI VASU</v>
+        <v>ABHISHEK SHARMA</v>
       </c>
       <c r="B117" t="str">
-        <v>7780361713</v>
+        <v>8707294442</v>
       </c>
       <c r="C117" t="str">
-        <v>Reliance Digital- 8793 - RRL CDIT MSR Elements Bangalo</v>
+        <v>Reliance Digital- TZ8C - RRL CDIT- GT Road Gu</v>
       </c>
       <c r="D117" t="str">
-        <v>Bangalore</v>
+        <v>Kanpur</v>
       </c>
       <c r="E117" t="str">
-        <v>1998-05-26</v>
+        <v>1994-07-07</v>
       </c>
       <c r="F117" t="str">
-        <v>Single</v>
+        <v>Married (2022-02-05)</v>
       </c>
       <c r="G117">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770873182/sec_profiles/profile_7780361713.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771046874/sec_profiles/profile_8707294442.jpg</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>VIKRAM SHARMA</v>
+        <v>PAWAN KUMAR VERMA</v>
       </c>
       <c r="B118" t="str">
-        <v>8491957828</v>
+        <v>8470802092</v>
       </c>
       <c r="C118" t="str">
-        <v>Reliance Digital- T2SN - RRL CDIT Kunjwani B</v>
+        <v>Reliance Digital- 6744 - RRL CDIT Sector 29 Gurgaon</v>
       </c>
       <c r="D118" t="str">
-        <v>Jammu</v>
+        <v>Gurgaon</v>
       </c>
       <c r="E118" t="str">
-        <v>1988-09-15</v>
+        <v>1990-04-04</v>
       </c>
       <c r="F118" t="str">
-        <v>Married (2012-02-24)</v>
+        <v>Married (2009-05-27)</v>
       </c>
       <c r="G118">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770705438/sec_profiles/profile_8491957828.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770983493/sec_profiles/profile_8470802092.jpg</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>ALI ARBAAZ KHAN</v>
+        <v>BABLA NIRANJAN SINGH</v>
       </c>
       <c r="B119" t="str">
-        <v>9369287787</v>
+        <v>7678005015</v>
       </c>
       <c r="C119" t="str">
-        <v>Reliance Digital- T30E - RRL CDIT-Swaroop Nag</v>
+        <v>Reliance Digital- TB88 - RRL CDIT Seawoods Grand Centra</v>
       </c>
       <c r="D119" t="str">
-        <v>Kanpur</v>
+        <v>Mumbai</v>
       </c>
       <c r="E119" t="str">
-        <v>2000-09-14</v>
+        <v>1996-09-06</v>
       </c>
       <c r="F119" t="str">
-        <v>Single</v>
+        <v>Married (2025-12-15)</v>
       </c>
       <c r="G119">
         <v>20</v>
@@ -3851,53 +3851,53 @@
         <v>0</v>
       </c>
       <c r="I119" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771046740/sec_profiles/profile_9369287787.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770986252/sec_profiles/profile_7678005015.jpg</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Rahul Das</v>
+        <v>Md Rashid</v>
       </c>
       <c r="B120" t="str">
-        <v>8250400134</v>
+        <v>8434343404</v>
       </c>
       <c r="C120" t="str">
-        <v>Reliance Digital- 8985 - RRL CDIT Curzon Residency Burd</v>
+        <v>Reliance Digital- TC2V - RRL CDIT Hajipur</v>
       </c>
       <c r="D120" t="str">
-        <v>Burdwan</v>
+        <v>Hajipur</v>
       </c>
       <c r="E120" t="str">
-        <v>1994-05-07</v>
+        <v>1995-01-07</v>
       </c>
       <c r="F120" t="str">
-        <v>Married (2019-12-01)</v>
+        <v>Married (2023-07-17)</v>
       </c>
       <c r="G120">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770709804/sec_profiles/profile_8250400134.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771396338/sec_profiles/profile_8434343404.jpg</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>PURIYA SUNILKUMAR</v>
+        <v>Bha</v>
       </c>
       <c r="B121" t="str">
-        <v>9666033766</v>
+        <v>8209497281</v>
       </c>
       <c r="C121" t="str">
-        <v>Reliance Digital- TK86 - RRl CDIT Sharath City Centre</v>
+        <v>Reliance Digital- TY11 - RRL CDIT Paras Prime Udaipur</v>
       </c>
       <c r="D121" t="str">
-        <v>Hyderabad</v>
+        <v>Udaipur</v>
       </c>
       <c r="E121" t="str">
-        <v>1999-07-15</v>
+        <v>2006-01-01</v>
       </c>
       <c r="F121" t="str">
         <v>Single</v>
@@ -3909,85 +3909,85 @@
         <v>0</v>
       </c>
       <c r="I121" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712027/sec_profiles/profile_9666033766.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770693702/sec_profiles/profile_8209497281.jpg</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>MOHAMMED NIYAZ</v>
+        <v>SEYYAD MOHAMMAD ADNAN</v>
       </c>
       <c r="B122" t="str">
-        <v>7780432531</v>
+        <v>9549430917</v>
       </c>
       <c r="C122" t="str">
-        <v>Reliance Digital- TSD5 - RRL CDIT Tollichowki hyd</v>
+        <v>Unknown</v>
       </c>
       <c r="D122" t="str">
-        <v>Hyderabad</v>
+        <v>Unknown</v>
       </c>
       <c r="E122" t="str">
-        <v>2001-07-05</v>
+        <v>2000-04-26</v>
       </c>
       <c r="F122" t="str">
-        <v>Single</v>
+        <v>Married (2025-11-04)</v>
       </c>
       <c r="G122">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712157/sec_profiles/profile_7780432531.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770694248/sec_profiles/profile_9549430917.jpg</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>MANEKAR VINOD SHRINIVAS</v>
+        <v>MAHESH MOHAN GANBAWALE</v>
       </c>
       <c r="B123" t="str">
-        <v>9515407484</v>
+        <v>8999109006</v>
       </c>
       <c r="C123" t="str">
-        <v>VS- Ts(Bhel)</v>
+        <v>Reliance Digital- T2QO - RRL CDIT Sangli Mir</v>
       </c>
       <c r="D123" t="str">
-        <v>Telanagna</v>
+        <v>SANGLI</v>
       </c>
       <c r="E123" t="str">
-        <v>1983-01-12</v>
+        <v>1992-03-23</v>
       </c>
       <c r="F123" t="str">
-        <v>Married (2023-02-13)</v>
+        <v>Single</v>
       </c>
       <c r="G123">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712042/sec_profiles/profile_9515407484.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770879051/sec_profiles/profile_8999109006.jpg</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Shivam awasthi</v>
+        <v>SUTHEESH SURESH</v>
       </c>
       <c r="B124" t="str">
-        <v>8585985162</v>
+        <v>9360784468</v>
       </c>
       <c r="C124" t="str">
-        <v>Reliance Digital- 8689 - RRL CDIT Crown Interiorz Mall</v>
+        <v>Reliance Digital- T592 - RIL Mall Nagarcoil</v>
       </c>
       <c r="D124" t="str">
-        <v>Faridabad</v>
+        <v>Nagarcoil</v>
       </c>
       <c r="E124" t="str">
-        <v>1995-09-20</v>
+        <v>2002-11-17</v>
       </c>
       <c r="F124" t="str">
-        <v>Married (2018-04-29)</v>
+        <v>Married (2025-08-28)</v>
       </c>
       <c r="G124">
         <v>20</v>
@@ -3996,56 +3996,56 @@
         <v>0</v>
       </c>
       <c r="I124" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712014/sec_profiles/profile_8585985162.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770718637/sec_profiles/profile_9360784468.jpg</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>PALLABI SAHU</v>
+        <v>Mohanapriya</v>
       </c>
       <c r="B125" t="str">
-        <v>6281883376</v>
+        <v>7339365623</v>
       </c>
       <c r="C125" t="str">
-        <v>Reliance Digital- 6362 - RRL CDIT Gachibowli Hyderabad</v>
+        <v>Reliance Digital- 8979 - RRL CDIT Ambattur Chennai</v>
       </c>
       <c r="D125" t="str">
-        <v>Hyderabad</v>
+        <v>Chennai</v>
       </c>
       <c r="E125" t="str">
-        <v>1997-12-25</v>
+        <v>1997-02-23</v>
       </c>
       <c r="F125" t="str">
-        <v>Single</v>
+        <v>Married (2026-09-12)</v>
       </c>
       <c r="G125">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712637/sec_profiles/profile_6281883376.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771178673/sec_profiles/profile_7339365623.jpg</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>THAMBIRAJ</v>
+        <v>Rahul kumar mishra</v>
       </c>
       <c r="B126" t="str">
-        <v>8939540906</v>
+        <v>9554483884</v>
       </c>
       <c r="C126" t="str">
-        <v>Reliance Digital- 9193 - RRL CDIT Navalur</v>
+        <v>Reliance Digital- T2QM - RRL CDIT Ratan Khan</v>
       </c>
       <c r="D126" t="str">
-        <v>Chennai</v>
+        <v>Lucknow</v>
       </c>
       <c r="E126" t="str">
-        <v>1988-05-11</v>
+        <v>1995-07-21</v>
       </c>
       <c r="F126" t="str">
-        <v>Married (2015-05-18)</v>
+        <v>Single</v>
       </c>
       <c r="G126">
         <v>20</v>
@@ -4054,27 +4054,27 @@
         <v>0</v>
       </c>
       <c r="I126" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770713901/sec_profiles/profile_8939540906.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770889126/sec_profiles/profile_9554483884.jpg</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Ujjaval Srivastava</v>
+        <v>ARPUTHARAJ VASANTHRAJ</v>
       </c>
       <c r="B127" t="str">
-        <v>8090922532</v>
+        <v>9385470206</v>
       </c>
       <c r="C127" t="str">
-        <v>Reliance Digital- 8950 - RRL CDIT Halwasiya Court Luck</v>
+        <v>Reliance Digital- 3898 - RRL CDIT Avadi Chennai</v>
       </c>
       <c r="D127" t="str">
-        <v>Lucknow</v>
+        <v>Chennai</v>
       </c>
       <c r="E127" t="str">
-        <v>1995-05-20</v>
+        <v>2000-06-02</v>
       </c>
       <c r="F127" t="str">
-        <v>Married (2024-12-05)</v>
+        <v>Married (2022-07-04)</v>
       </c>
       <c r="G127">
         <v>20</v>
@@ -4083,27 +4083,27 @@
         <v>0</v>
       </c>
       <c r="I127" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770725546/sec_profiles/profile_8090922532.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712604/sec_profiles/profile_9385470206.jpg</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>PARANTHAMAN PRABU</v>
+        <v>Vinokarthick</v>
       </c>
       <c r="B128" t="str">
-        <v>9003813594</v>
+        <v>9344374118</v>
       </c>
       <c r="C128" t="str">
-        <v>Reliance Digital- 8943 - RRL CDIT Vishaal De Mal Madur</v>
+        <v>Unknown</v>
       </c>
       <c r="D128" t="str">
-        <v>Madurai</v>
+        <v>Unknown</v>
       </c>
       <c r="E128" t="str">
-        <v>1995-03-05</v>
+        <v>1996-07-20</v>
       </c>
       <c r="F128" t="str">
-        <v>Married (2019-06-06)</v>
+        <v>Single</v>
       </c>
       <c r="G128">
         <v>20</v>
@@ -4112,114 +4112,114 @@
         <v>0</v>
       </c>
       <c r="I128" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770718265/sec_profiles/profile_9003813594.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770703436/sec_profiles/profile_9344374118.jpg</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>MAREPALLY PRAPULKUMAR</v>
+        <v>PRADYUMNA KUMAR DALAI</v>
       </c>
       <c r="B129" t="str">
-        <v>6304362043</v>
+        <v>9040605606</v>
       </c>
       <c r="C129" t="str">
-        <v>Reliance Digital- 8959 - RRL CDIT AS Rao Speciality St</v>
+        <v>Reliance Digital- 7900 - MINI GOPABANDHU</v>
       </c>
       <c r="D129" t="str">
-        <v>Hyderabad</v>
+        <v>Bhubaneswar</v>
       </c>
       <c r="E129" t="str">
-        <v>2001-08-20</v>
+        <v>1995-05-04</v>
       </c>
       <c r="F129" t="str">
         <v>Single</v>
       </c>
       <c r="G129">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770722185/sec_profiles/profile_6304362043.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770829281/sec_profiles/profile_9040605606.jpg</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>DHARMARAJ PONRAJ</v>
+        <v>BOMSHETI VASU</v>
       </c>
       <c r="B130" t="str">
-        <v>8220113708</v>
+        <v>7780361713</v>
       </c>
       <c r="C130" t="str">
-        <v>Reliance Digital- TVL0 - RRL CDIT- Bypass Roa</v>
+        <v>Reliance Digital- 8793 - RRL CDIT MSR Elements Bangalo</v>
       </c>
       <c r="D130" t="str">
-        <v>Madurai</v>
+        <v>Bangalore</v>
       </c>
       <c r="E130" t="str">
-        <v>1993-10-24</v>
+        <v>1998-05-26</v>
       </c>
       <c r="F130" t="str">
-        <v>Married (2021-02-25)</v>
+        <v>Single</v>
       </c>
       <c r="G130">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770734338/sec_profiles/profile_8220113708.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770873182/sec_profiles/profile_7780361713.jpg</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>VEERABAGHU</v>
+        <v>VIKRAM SHARMA</v>
       </c>
       <c r="B131" t="str">
-        <v>9944047900</v>
+        <v>8491957828</v>
       </c>
       <c r="C131" t="str">
-        <v>Reliance Digital- 7952 - RRL CDIT Tirunelveli</v>
+        <v>Reliance Digital- T2SN - RRL CDIT Kunjwani B</v>
       </c>
       <c r="D131" t="str">
-        <v>Tirunelveli</v>
+        <v>Jammu</v>
       </c>
       <c r="E131" t="str">
-        <v>1986-12-24</v>
+        <v>1988-09-15</v>
       </c>
       <c r="F131" t="str">
-        <v>Married (2016-05-09)</v>
+        <v>Married (2012-02-24)</v>
       </c>
       <c r="G131">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770740334/sec_profiles/profile_9944047900.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770705438/sec_profiles/profile_8491957828.jpg</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>MOHAMMED HASEEM</v>
+        <v>ALI ARBAAZ KHAN</v>
       </c>
       <c r="B132" t="str">
-        <v>8904349720</v>
+        <v>9369287787</v>
       </c>
       <c r="C132" t="str">
-        <v>Reliance Digital- 8890 - RRL CDIT Bull Temple Road Ban</v>
+        <v>Reliance Digital- T30E - RRL CDIT-Swaroop Nag</v>
       </c>
       <c r="D132" t="str">
-        <v>Bangalore</v>
+        <v>Kanpur</v>
       </c>
       <c r="E132" t="str">
-        <v>1989-10-03</v>
+        <v>2000-09-14</v>
       </c>
       <c r="F132" t="str">
-        <v>Married (2020-01-05)</v>
+        <v>Single</v>
       </c>
       <c r="G132">
         <v>20</v>
@@ -4228,27 +4228,27 @@
         <v>0</v>
       </c>
       <c r="I132" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770749571/sec_profiles/profile_8904349720.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771046740/sec_profiles/profile_9369287787.jpg</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>ARUN</v>
+        <v>Rahul Das</v>
       </c>
       <c r="B133" t="str">
-        <v>9626362066</v>
+        <v>8250400134</v>
       </c>
       <c r="C133" t="str">
-        <v>Reliance Digital- 8978 - RRL CDIT Chrompet Chennai</v>
+        <v>Reliance Digital- 8985 - RRL CDIT Curzon Residency Burd</v>
       </c>
       <c r="D133" t="str">
-        <v>Chennai</v>
+        <v>Burdwan</v>
       </c>
       <c r="E133" t="str">
-        <v>1994-03-06</v>
+        <v>1994-05-07</v>
       </c>
       <c r="F133" t="str">
-        <v>Married (2023-10-28)</v>
+        <v>Married (2019-12-01)</v>
       </c>
       <c r="G133">
         <v>20</v>
@@ -4257,85 +4257,85 @@
         <v>0</v>
       </c>
       <c r="I133" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771310717/sec_profiles/profile_9626362066.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770709804/sec_profiles/profile_8250400134.jpg</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>TOUPHIK SHARIF SHAIKH</v>
+        <v>PURIYA SUNILKUMAR</v>
       </c>
       <c r="B134" t="str">
-        <v>8408020309</v>
+        <v>9666033766</v>
       </c>
       <c r="C134" t="str">
-        <v>VS- Pune(Nagar Road) Br</v>
+        <v>Reliance Digital- TK86 - RRl CDIT Sharath City Centre</v>
       </c>
       <c r="D134" t="str">
-        <v>Pune</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E134" t="str">
-        <v>1994-09-24</v>
+        <v>1999-07-15</v>
       </c>
       <c r="F134" t="str">
         <v>Single</v>
       </c>
       <c r="G134">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H134">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I134" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984155/sec_profiles/profile_8408020309.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712027/sec_profiles/profile_9666033766.jpg</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>SURAJIT CHAKRABORTY</v>
+        <v>MOHAMMED NIYAZ</v>
       </c>
       <c r="B135" t="str">
-        <v>7003625106</v>
+        <v>7780432531</v>
       </c>
       <c r="C135" t="str">
-        <v>Reliance Digital- 8709 - RRL D Xpress Park Mansion Kolk</v>
+        <v>Reliance Digital- TSD5 - RRL CDIT Tollichowki hyd</v>
       </c>
       <c r="D135" t="str">
-        <v>Kolkata</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E135" t="str">
-        <v>1988-12-18</v>
+        <v>2001-07-05</v>
       </c>
       <c r="F135" t="str">
         <v>Single</v>
       </c>
       <c r="G135">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984732/sec_profiles/profile_7003625106.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712157/sec_profiles/profile_7780432531.jpg</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Jatin dev</v>
+        <v>MANEKAR VINOD SHRINIVAS</v>
       </c>
       <c r="B136" t="str">
-        <v>9698494955</v>
+        <v>9515407484</v>
       </c>
       <c r="C136" t="str">
-        <v>A740 - Gorakhpur Taramandal</v>
+        <v>VS- Ts(Bhel)</v>
       </c>
       <c r="D136" t="str">
-        <v>Gorakhpur</v>
+        <v>Telanagna</v>
       </c>
       <c r="E136" t="str">
-        <v>2001-12-10</v>
+        <v>1983-01-12</v>
       </c>
       <c r="F136" t="str">
-        <v>Single</v>
+        <v>Married (2023-02-13)</v>
       </c>
       <c r="G136">
         <v>20</v>
@@ -4344,27 +4344,27 @@
         <v>0</v>
       </c>
       <c r="I136" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770820479/sec_profiles/profile_9698494955.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712042/sec_profiles/profile_9515407484.jpg</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>MANIK KOUL</v>
+        <v>Shivam awasthi</v>
       </c>
       <c r="B137" t="str">
-        <v>6006177196</v>
+        <v>8585985162</v>
       </c>
       <c r="C137" t="str">
-        <v>Reliance Digital- T0BE - RRL CDIT Jewel chowk</v>
+        <v>Reliance Digital- 8689 - RRL CDIT Crown Interiorz Mall</v>
       </c>
       <c r="D137" t="str">
-        <v>Jammu</v>
+        <v>Faridabad</v>
       </c>
       <c r="E137" t="str">
-        <v>1998-08-26</v>
+        <v>1995-09-20</v>
       </c>
       <c r="F137" t="str">
-        <v>Single</v>
+        <v>Married (2018-04-29)</v>
       </c>
       <c r="G137">
         <v>20</v>
@@ -4373,56 +4373,56 @@
         <v>0</v>
       </c>
       <c r="I137" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872258/sec_profiles/profile_6006177196.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712014/sec_profiles/profile_8585985162.jpg</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>M D SAMEER</v>
+        <v>PALLABI SAHU</v>
       </c>
       <c r="B138" t="str">
-        <v>6361409968</v>
+        <v>6281883376</v>
       </c>
       <c r="C138" t="str">
-        <v>Reliance Digital- T8CF - RRL CDIT Gangavati</v>
+        <v>Reliance Digital- 6362 - RRL CDIT Gachibowli Hyderabad</v>
       </c>
       <c r="D138" t="str">
-        <v>Gangavati</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E138" t="str">
-        <v>2001-06-28</v>
+        <v>1997-12-25</v>
       </c>
       <c r="F138" t="str">
         <v>Single</v>
       </c>
       <c r="G138">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872472/sec_profiles/profile_6361409968.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770712637/sec_profiles/profile_6281883376.jpg</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>GYANENDRA SINGH</v>
+        <v>THAMBIRAJ</v>
       </c>
       <c r="B139" t="str">
-        <v>8173825479</v>
+        <v>8939540906</v>
       </c>
       <c r="C139" t="str">
-        <v>Reliance Digital- 9154 - RRL CDIT Logix City Centre</v>
+        <v>Reliance Digital- 9193 - RRL CDIT Navalur</v>
       </c>
       <c r="D139" t="str">
-        <v>Noida</v>
+        <v>Chennai</v>
       </c>
       <c r="E139" t="str">
-        <v>2004-05-03</v>
+        <v>1988-05-11</v>
       </c>
       <c r="F139" t="str">
-        <v>Single</v>
+        <v>Married (2015-05-18)</v>
       </c>
       <c r="G139">
         <v>20</v>
@@ -4431,56 +4431,56 @@
         <v>0</v>
       </c>
       <c r="I139" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770876895/sec_profiles/profile_8173825479.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770713901/sec_profiles/profile_8939540906.jpg</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>RAJAN KUMAR CHAURASIYA</v>
+        <v>Ujjaval Srivastava</v>
       </c>
       <c r="B140" t="str">
-        <v>9693111115</v>
+        <v>8090922532</v>
       </c>
       <c r="C140" t="str">
-        <v>Reliance Digital- TI0Z - RRL CDIT Saraidhela</v>
+        <v>Reliance Digital- 8950 - RRL CDIT Halwasiya Court Luck</v>
       </c>
       <c r="D140" t="str">
-        <v>Dhanbad</v>
+        <v>Lucknow</v>
       </c>
       <c r="E140" t="str">
-        <v>1995-06-19</v>
+        <v>1995-05-20</v>
       </c>
       <c r="F140" t="str">
-        <v>Married (2015-11-26)</v>
+        <v>Married (2024-12-05)</v>
       </c>
       <c r="G140">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770882475/sec_profiles/profile_9693111115.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770725546/sec_profiles/profile_8090922532.jpg</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>MANOJKUMAR VEERAPATHIRAN</v>
+        <v>PARANTHAMAN PRABU</v>
       </c>
       <c r="B141" t="str">
-        <v>9003446060</v>
+        <v>9003813594</v>
       </c>
       <c r="C141" t="str">
-        <v>Reliance Digital- 8934 - RRL CDIT Anna Nagar Chennai S</v>
+        <v>Reliance Digital- 8943 - RRL CDIT Vishaal De Mal Madur</v>
       </c>
       <c r="D141" t="str">
-        <v>Chennai</v>
+        <v>Madurai</v>
       </c>
       <c r="E141" t="str">
-        <v>1993-11-02</v>
+        <v>1995-03-05</v>
       </c>
       <c r="F141" t="str">
-        <v>Single</v>
+        <v>Married (2019-06-06)</v>
       </c>
       <c r="G141">
         <v>20</v>
@@ -4489,114 +4489,114 @@
         <v>0</v>
       </c>
       <c r="I141" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770893758/sec_profiles/profile_9003446060.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770718265/sec_profiles/profile_9003813594.jpg</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>KALIYAPERUMAL DEVANATHAN</v>
+        <v>MAREPALLY PRAPULKUMAR</v>
       </c>
       <c r="B142" t="str">
-        <v>9384626248</v>
+        <v>6304362043</v>
       </c>
       <c r="C142" t="str">
-        <v>Reliance Digital- 9192 - RRL CDIT Velachery</v>
+        <v>Reliance Digital- 8959 - RRL CDIT AS Rao Speciality St</v>
       </c>
       <c r="D142" t="str">
-        <v>Chennai</v>
+        <v>Hyderabad</v>
       </c>
       <c r="E142" t="str">
-        <v>1999-07-15</v>
+        <v>2001-08-20</v>
       </c>
       <c r="F142" t="str">
-        <v>Married (2025-09-04)</v>
+        <v>Single</v>
       </c>
       <c r="G142">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771144736/sec_profiles/profile_9384626248.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770722185/sec_profiles/profile_6304362043.jpg</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>MOHD RAYEESUDDIN</v>
+        <v>DHARMARAJ PONRAJ</v>
       </c>
       <c r="B143" t="str">
-        <v>7032621100</v>
+        <v>8220113708</v>
       </c>
       <c r="C143" t="str">
-        <v>Croma- A169 -Hyderabad-Sarath City Mall</v>
+        <v>Reliance Digital- TVL0 - RRL CDIT- Bypass Roa</v>
       </c>
       <c r="D143" t="str">
-        <v>Hyderabad</v>
+        <v>Madurai</v>
       </c>
       <c r="E143" t="str">
-        <v>1997-11-03</v>
+        <v>1993-10-24</v>
       </c>
       <c r="F143" t="str">
-        <v>Single</v>
+        <v>Married (2021-02-25)</v>
       </c>
       <c r="G143">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770974996/sec_profiles/profile_7032621100.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770734338/sec_profiles/profile_8220113708.jpg</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>SHAHUL AMEED A</v>
+        <v>VEERABAGHU</v>
       </c>
       <c r="B144" t="str">
-        <v>8939770194</v>
+        <v>9944047900</v>
       </c>
       <c r="C144" t="str">
-        <v>Reliance Digital- T5BB - Navalur</v>
+        <v>Reliance Digital- 7952 - RRL CDIT Tirunelveli</v>
       </c>
       <c r="D144" t="str">
-        <v>CHENNAI</v>
+        <v>Tirunelveli</v>
       </c>
       <c r="E144" t="str">
-        <v>2003-10-02</v>
+        <v>1986-12-24</v>
       </c>
       <c r="F144" t="str">
-        <v>Single</v>
+        <v>Married (2016-05-09)</v>
       </c>
       <c r="G144">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770980771/sec_profiles/profile_8939770194.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770740334/sec_profiles/profile_9944047900.jpg</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Mohit</v>
+        <v>MOHAMMED HASEEM</v>
       </c>
       <c r="B145" t="str">
-        <v>1299101022</v>
+        <v>8904349720</v>
       </c>
       <c r="C145" t="str">
-        <v>Reliance Digital- 8954 - RRL CDIT Satyam Kolkata Store</v>
+        <v>Reliance Digital- 8890 - RRL CDIT Bull Temple Road Ban</v>
       </c>
       <c r="D145" t="str">
-        <v>Kolkata</v>
+        <v>Bangalore</v>
       </c>
       <c r="E145" t="str">
-        <v>2001-12-10</v>
+        <v>1989-10-03</v>
       </c>
       <c r="F145" t="str">
-        <v>Single</v>
+        <v>Married (2020-01-05)</v>
       </c>
       <c r="G145">
         <v>20</v>
@@ -4605,128 +4605,563 @@
         <v>0</v>
       </c>
       <c r="I145" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770982014/sec_profiles/profile_1299101022.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770749571/sec_profiles/profile_8904349720.jpg</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>MANJUKALA SHIVA KUMAR PUNEETH KUMAR</v>
+        <v>ARUN</v>
       </c>
       <c r="B146" t="str">
-        <v>7259500929</v>
+        <v>9626362066</v>
       </c>
       <c r="C146" t="str">
-        <v>Croma- A150 -Bangalore-Whitefield</v>
+        <v>Reliance Digital- 8978 - RRL CDIT Chrompet Chennai</v>
       </c>
       <c r="D146" t="str">
-        <v>Bangalore</v>
+        <v>Chennai</v>
       </c>
       <c r="E146" t="str">
-        <v>1997-10-29</v>
+        <v>1994-03-06</v>
       </c>
       <c r="F146" t="str">
-        <v>Single</v>
+        <v>Married (2023-10-28)</v>
       </c>
       <c r="G146">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I146" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771051178/sec_profiles/profile_7259500929.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771310717/sec_profiles/profile_9626362066.jpg</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Sahil kanai</v>
+        <v>TOUPHIK SHARIF SHAIKH</v>
       </c>
       <c r="B147" t="str">
-        <v>8009681135</v>
+        <v>8408020309</v>
       </c>
       <c r="C147" t="str">
-        <v>Reliance Digital- TCW6 - RRL CDIT Phoenix Marketcity L</v>
+        <v>VS- Pune(Nagar Road) Br</v>
       </c>
       <c r="D147" t="str">
-        <v>Lucknow</v>
+        <v>Pune</v>
       </c>
       <c r="E147" t="str">
-        <v>1991-11-07</v>
+        <v>1994-09-24</v>
       </c>
       <c r="F147" t="str">
         <v>Single</v>
       </c>
       <c r="G147">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I147" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771058206/sec_profiles/profile_8009681135.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984155/sec_profiles/profile_8408020309.jpg</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>VISWANATHAN SAMPAUL</v>
+        <v>SURAJIT CHAKRABORTY</v>
       </c>
       <c r="B148" t="str">
-        <v>8220661227</v>
+        <v>7003625106</v>
       </c>
       <c r="C148" t="str">
-        <v>Reliance Digital- 6916 - RRL CDIT Perundurai Road Erode</v>
+        <v>Reliance Digital- 8709 - RRL D Xpress Park Mansion Kolk</v>
       </c>
       <c r="D148" t="str">
-        <v>Erode</v>
+        <v>Kolkata</v>
       </c>
       <c r="E148" t="str">
-        <v>1994-06-29</v>
+        <v>1988-12-18</v>
       </c>
       <c r="F148" t="str">
-        <v>Married (2024-05-19)</v>
+        <v>Single</v>
       </c>
       <c r="G148">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148" t="str">
-        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771059427/sec_profiles/profile_8220661227.jpg</v>
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770984732/sec_profiles/profile_7003625106.jpg</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
+        <v>Jatin dev</v>
+      </c>
+      <c r="B149" t="str">
+        <v>9698494955</v>
+      </c>
+      <c r="C149" t="str">
+        <v>A740 - Gorakhpur Taramandal</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Gorakhpur</v>
+      </c>
+      <c r="E149" t="str">
+        <v>2001-12-10</v>
+      </c>
+      <c r="F149" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G149">
+        <v>20</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770820479/sec_profiles/profile_9698494955.jpg</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>MANIK KOUL</v>
+      </c>
+      <c r="B150" t="str">
+        <v>6006177196</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Reliance Digital- T0BE - RRL CDIT Jewel chowk</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Jammu</v>
+      </c>
+      <c r="E150" t="str">
+        <v>1998-08-26</v>
+      </c>
+      <c r="F150" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G150">
+        <v>20</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872258/sec_profiles/profile_6006177196.jpg</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>M D SAMEER</v>
+      </c>
+      <c r="B151" t="str">
+        <v>6361409968</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Reliance Digital- T8CF - RRL CDIT Gangavati</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Gangavati</v>
+      </c>
+      <c r="E151" t="str">
+        <v>2001-06-28</v>
+      </c>
+      <c r="F151" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G151">
+        <v>20</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770872472/sec_profiles/profile_6361409968.jpg</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>GYANENDRA SINGH</v>
+      </c>
+      <c r="B152" t="str">
+        <v>8173825479</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Reliance Digital- 9154 - RRL CDIT Logix City Centre</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Noida</v>
+      </c>
+      <c r="E152" t="str">
+        <v>2004-05-03</v>
+      </c>
+      <c r="F152" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G152">
+        <v>20</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770876895/sec_profiles/profile_8173825479.jpg</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>RAJAN KUMAR CHAURASIYA</v>
+      </c>
+      <c r="B153" t="str">
+        <v>9693111115</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Reliance Digital- TI0Z - RRL CDIT Saraidhela</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Dhanbad</v>
+      </c>
+      <c r="E153" t="str">
+        <v>1995-06-19</v>
+      </c>
+      <c r="F153" t="str">
+        <v>Married (2015-11-26)</v>
+      </c>
+      <c r="G153">
+        <v>23</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770882475/sec_profiles/profile_9693111115.jpg</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Huzaif khan</v>
+      </c>
+      <c r="B154" t="str">
+        <v>7040204000</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Reliance Digital- 8693 - RRL CDIT Garkheda Aurangabad</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Aurangabad</v>
+      </c>
+      <c r="E154" t="str">
+        <v>2000-05-18</v>
+      </c>
+      <c r="F154" t="str">
+        <v>Married (2026-07-23)</v>
+      </c>
+      <c r="G154">
+        <v>20</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771398778/sec_profiles/profile_7040204000.jpg</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>MANOJKUMAR VEERAPATHIRAN</v>
+      </c>
+      <c r="B155" t="str">
+        <v>9003446060</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Reliance Digital- 8934 - RRL CDIT Anna Nagar Chennai S</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="E155" t="str">
+        <v>1993-11-02</v>
+      </c>
+      <c r="F155" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G155">
+        <v>20</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770893758/sec_profiles/profile_9003446060.jpg</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>KALIYAPERUMAL DEVANATHAN</v>
+      </c>
+      <c r="B156" t="str">
+        <v>9384626248</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Reliance Digital- 9192 - RRL CDIT Velachery</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="E156" t="str">
+        <v>1999-07-15</v>
+      </c>
+      <c r="F156" t="str">
+        <v>Married (2025-09-04)</v>
+      </c>
+      <c r="G156">
+        <v>25</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771144736/sec_profiles/profile_9384626248.jpg</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>KISHORE PODISHETTI</v>
+      </c>
+      <c r="B157" t="str">
+        <v>7382470372</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Croma- A422 -Secunderabad-Nagaram</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Secunderabad</v>
+      </c>
+      <c r="E157" t="str">
+        <v>1993-07-14</v>
+      </c>
+      <c r="F157" t="str">
+        <v>Married (2017-07-22)</v>
+      </c>
+      <c r="G157">
+        <v>23</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771327121/sec_profiles/profile_7382470372.jpg</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>MOHD RAYEESUDDIN</v>
+      </c>
+      <c r="B158" t="str">
+        <v>7032621100</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Croma- A169 -Hyderabad-Sarath City Mall</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Hyderabad</v>
+      </c>
+      <c r="E158" t="str">
+        <v>1997-11-03</v>
+      </c>
+      <c r="F158" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G158">
+        <v>20</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770974996/sec_profiles/profile_7032621100.jpg</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>SHAHUL AMEED A</v>
+      </c>
+      <c r="B159" t="str">
+        <v>8939770194</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Reliance Digital- T5BB - Navalur</v>
+      </c>
+      <c r="D159" t="str">
+        <v>CHENNAI</v>
+      </c>
+      <c r="E159" t="str">
+        <v>2003-10-02</v>
+      </c>
+      <c r="F159" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G159">
+        <v>20</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770980771/sec_profiles/profile_8939770194.jpg</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Mohit</v>
+      </c>
+      <c r="B160" t="str">
+        <v>1299101022</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Reliance Digital- 8954 - RRL CDIT Satyam Kolkata Store</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Kolkata</v>
+      </c>
+      <c r="E160" t="str">
+        <v>2001-12-10</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G160">
+        <v>20</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1770982014/sec_profiles/profile_1299101022.jpg</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>MANJUKALA SHIVA KUMAR PUNEETH KUMAR</v>
+      </c>
+      <c r="B161" t="str">
+        <v>7259500929</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Croma- A150 -Bangalore-Whitefield</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Bangalore</v>
+      </c>
+      <c r="E161" t="str">
+        <v>1997-10-29</v>
+      </c>
+      <c r="F161" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G161">
+        <v>37</v>
+      </c>
+      <c r="H161">
+        <v>5</v>
+      </c>
+      <c r="I161" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771051178/sec_profiles/profile_7259500929.jpg</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Sahil kanai</v>
+      </c>
+      <c r="B162" t="str">
+        <v>8009681135</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Reliance Digital- TCW6 - RRL CDIT Phoenix Marketcity L</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Lucknow</v>
+      </c>
+      <c r="E162" t="str">
+        <v>1991-11-07</v>
+      </c>
+      <c r="F162" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G162">
+        <v>20</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771058206/sec_profiles/profile_8009681135.jpg</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>VISWANATHAN SAMPAUL</v>
+      </c>
+      <c r="B163" t="str">
+        <v>8220661227</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Reliance Digital- 6916 - RRL CDIT Perundurai Road Erode</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Erode</v>
+      </c>
+      <c r="E163" t="str">
+        <v>1994-06-29</v>
+      </c>
+      <c r="F163" t="str">
+        <v>Married (2024-05-19)</v>
+      </c>
+      <c r="G163">
+        <v>31</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163" t="str">
+        <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771059427/sec_profiles/profile_8220661227.jpg</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
         <v>RAMARAJ MUTHUKUMAR</v>
       </c>
-      <c r="B149" t="str">
+      <c r="B164" t="str">
         <v>9750608468</v>
       </c>
-      <c r="C149" t="str">
+      <c r="C164" t="str">
         <v>Reliance Digital- TW39 - Theni Tamilnadu</v>
       </c>
-      <c r="D149" t="str">
+      <c r="D164" t="str">
         <v>Theni</v>
       </c>
-      <c r="E149" t="str">
+      <c r="E164" t="str">
         <v>1991-06-04</v>
       </c>
-      <c r="F149" t="str">
+      <c r="F164" t="str">
         <v>Married (2020-06-03)</v>
       </c>
-      <c r="G149">
+      <c r="G164">
         <v>23</v>
       </c>
-      <c r="H149">
+      <c r="H164">
         <v>1</v>
       </c>
-      <c r="I149" t="str">
+      <c r="I164" t="str">
         <v>https://res.cloudinary.com/da6kyzy2i/image/upload/v1771164300/sec_profiles/profile_9750608468.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I149"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I164"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4763,56 +5198,56 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ONKAR RAJSHEKHAR UMBRAJKAR</v>
+        <v>Shivam sharma</v>
       </c>
       <c r="B2" t="str">
-        <v>8087704399</v>
+        <v>7428877742</v>
       </c>
       <c r="C2" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="D2" t="str">
         <v>NO</v>
       </c>
       <c r="E2" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F2">
         <v>19</v>
       </c>
       <c r="G2" t="str">
-        <v>Croma- A243 -Solapur-Murarji Peth</v>
+        <v>Croma- A048 -Delhi-SouthEx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Shivam sharma</v>
+        <v>Anvihalankar43@gmail.com</v>
       </c>
       <c r="B3" t="str">
-        <v>7428877742</v>
+        <v>9049078997</v>
       </c>
       <c r="C3" t="str">
         <v>NO</v>
       </c>
       <c r="D3" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E3" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" t="str">
-        <v>Croma- A048 -Delhi-SouthEx</v>
+        <v>Croma- A172 -Porvorim-Bardez</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Umesh p shinde</v>
+        <v>Syed Abbas</v>
       </c>
       <c r="B4" t="str">
-        <v>9922663882</v>
+        <v>8892227414</v>
       </c>
       <c r="C4" t="str">
         <v>NO</v>
@@ -4824,41 +5259,41 @@
         <v>NO</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" t="str">
-        <v>Croma- A156 -Pune-Baner</v>
+        <v>Croma- A045 -Bangalore-Indira Nagar</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>TUSHAR SETHI</v>
+        <v>Chandrashekar R</v>
       </c>
       <c r="B5" t="str">
-        <v>8218981308</v>
+        <v>9036451290</v>
       </c>
       <c r="C5" t="str">
         <v>NO</v>
       </c>
       <c r="D5" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E5" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" t="str">
-        <v>Croma- A135 -Noida-Logix Mall</v>
+        <v>Croma- A515 -Bangalore-Gottigere</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Anvihalankar43@gmail.com</v>
+        <v>NAVEEN KUMAR DUBEY</v>
       </c>
       <c r="B6" t="str">
-        <v>9049078997</v>
+        <v>9582576831</v>
       </c>
       <c r="C6" t="str">
         <v>NO</v>
@@ -4870,18 +5305,18 @@
         <v>YES</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="str">
-        <v>Croma- A172 -Porvorim-Bardez</v>
+        <v>Croma- A306 -Gurugram-Sector 86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mahadev Prasad N</v>
+        <v>Shekh malik shekh rashid</v>
       </c>
       <c r="B7" t="str">
-        <v>7899180977</v>
+        <v>8788883037</v>
       </c>
       <c r="C7" t="str">
         <v>NO</v>
@@ -4893,18 +5328,18 @@
         <v>NO</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" t="str">
-        <v>Croma- A073 -Bangalore-Banshankari</v>
+        <v>VS- Pune(Kondhawa)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Syed Abbas</v>
+        <v>Prashanth</v>
       </c>
       <c r="B8" t="str">
-        <v>8892227414</v>
+        <v>7780617002</v>
       </c>
       <c r="C8" t="str">
         <v>NO</v>
@@ -4916,18 +5351,18 @@
         <v>NO</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="str">
-        <v>Croma- A045 -Bangalore-Indira Nagar</v>
+        <v>Croma- A170 -Hyderabad-Kukatpally</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Chandrashekar R</v>
+        <v>ALAGAPPAN KARTHICK</v>
       </c>
       <c r="B9" t="str">
-        <v>9036451290</v>
+        <v>9345535583</v>
       </c>
       <c r="C9" t="str">
         <v>NO</v>
@@ -4942,15 +5377,15 @@
         <v>13</v>
       </c>
       <c r="G9" t="str">
-        <v>Croma- A515 -Bangalore-Gottigere</v>
+        <v>Croma- A213 -Salem-Bharathi Street</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>GOVINDA MAHILANGE</v>
+        <v>SACHIN SHARMA</v>
       </c>
       <c r="B10" t="str">
-        <v>9713096992</v>
+        <v>9625253553</v>
       </c>
       <c r="C10" t="str">
         <v>NO</v>
@@ -4965,15 +5400,15 @@
         <v>13</v>
       </c>
       <c r="G10" t="str">
-        <v>Croma- A219 -Raipur-VIP Chowk</v>
+        <v>VS- Delhi(Dwarka) Br</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>ALAGAPPAN KARTHICK</v>
+        <v>Sanket sanjayrao andeo</v>
       </c>
       <c r="B11" t="str">
-        <v>9345535583</v>
+        <v>8788991233</v>
       </c>
       <c r="C11" t="str">
         <v>NO</v>
@@ -4985,87 +5420,87 @@
         <v>NO</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="str">
-        <v>Croma- A213 -Salem-Bharathi Street</v>
+        <v>Croma- A354 -Nagpur-Wardha Road</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Sanket sanjayrao andeo</v>
+        <v>SHAHNAWAZ MOHAMMED AZAD SHAIKH</v>
       </c>
       <c r="B12" t="str">
-        <v>8788991233</v>
+        <v>9321222370</v>
       </c>
       <c r="C12" t="str">
         <v>NO</v>
       </c>
       <c r="D12" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E12" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
       <c r="G12" t="str">
-        <v>Croma- A354 -Nagpur-Wardha Road</v>
+        <v>VS- Vasai Br</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>NAVEEN KUMAR DUBEY</v>
+        <v>Shahbaaz shaikh</v>
       </c>
       <c r="B13" t="str">
-        <v>9582576831</v>
+        <v>9324052838</v>
       </c>
       <c r="C13" t="str">
         <v>NO</v>
       </c>
       <c r="D13" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E13" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
       <c r="G13" t="str">
-        <v>Croma- A306 -Gurugram-Sector 86</v>
+        <v>Croma- A507 -Navi Mumbai-Ulwe</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>MOHAMED IMRAN AHMED</v>
+        <v>Imran Khan</v>
       </c>
       <c r="B14" t="str">
-        <v>9945111142</v>
+        <v>9384622471</v>
       </c>
       <c r="C14" t="str">
         <v>NO</v>
       </c>
       <c r="D14" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E14" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F14">
         <v>11</v>
       </c>
       <c r="G14" t="str">
-        <v>Croma- A066 -Bangalore-Bannerghatta Mall</v>
+        <v>Reliance Digital- TAZ4 - RRL CDIT-Vijaya Mall</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Shahbaaz shaikh</v>
+        <v>Mishall Martin H</v>
       </c>
       <c r="B15" t="str">
-        <v>9324052838</v>
+        <v>8939887188</v>
       </c>
       <c r="C15" t="str">
         <v>NO</v>
@@ -5080,15 +5515,15 @@
         <v>11</v>
       </c>
       <c r="G15" t="str">
-        <v>Croma- A507 -Navi Mumbai-Ulwe</v>
+        <v>Croma- A037 -Chennai-Anna Nagar</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Imran Khan</v>
+        <v>Swapnil chintal</v>
       </c>
       <c r="B16" t="str">
-        <v>9384622471</v>
+        <v>7040589065</v>
       </c>
       <c r="C16" t="str">
         <v>NO</v>
@@ -5100,18 +5535,18 @@
         <v>NO</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="str">
-        <v>Reliance Digital- TAZ4 - RRL CDIT-Vijaya Mall</v>
+        <v>Croma- A314 -Ahmednagar-Kohinoor Mall</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mishall Martin H</v>
+        <v>Prabhakar Kumar Poddar</v>
       </c>
       <c r="B17" t="str">
-        <v>8939887188</v>
+        <v>8130780119</v>
       </c>
       <c r="C17" t="str">
         <v>NO</v>
@@ -5123,18 +5558,18 @@
         <v>NO</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="str">
-        <v>Croma- A037 -Chennai-Anna Nagar</v>
+        <v>Croma- A276 -Delhi-Civil Lines</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Prabhakar Kumar Poddar</v>
+        <v>PREETY SINHA</v>
       </c>
       <c r="B18" t="str">
-        <v>8130780119</v>
+        <v>9762975009</v>
       </c>
       <c r="C18" t="str">
         <v>NO</v>
@@ -5149,7 +5584,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="str">
-        <v>Croma- A276 -Delhi-Civil Lines</v>
+        <v>VS- Pune(Dange Chowk)</v>
       </c>
     </row>
     <row r="19">
@@ -5177,56 +5612,56 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>SHAHNAWAZ MOHAMMED AZAD SHAIKH</v>
+        <v>Pradeep kumar</v>
       </c>
       <c r="B20" t="str">
-        <v>9321222370</v>
+        <v>7844862077</v>
       </c>
       <c r="C20" t="str">
         <v>NO</v>
       </c>
       <c r="D20" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E20" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="str">
-        <v>VS- Vasai Br</v>
+        <v>Croma- A032 -Delhi-Kamlanagar</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Pradeep kumar</v>
+        <v>Imran Motiwala</v>
       </c>
       <c r="B21" t="str">
-        <v>7844862077</v>
+        <v>7977773143</v>
       </c>
       <c r="C21" t="str">
         <v>NO</v>
       </c>
       <c r="D21" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E21" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="str">
-        <v>Croma- A032 -Delhi-Kamlanagar</v>
+        <v>Croma- A488 -Nashik-Dindori Road</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Altamash Miyabhai Shaikh</v>
+        <v>PUNAM SANTOSHSINGH PANDELE</v>
       </c>
       <c r="B22" t="str">
-        <v>7020496418</v>
+        <v>7030998724</v>
       </c>
       <c r="C22" t="str">
         <v>NO</v>
@@ -5241,38 +5676,38 @@
         <v>9</v>
       </c>
       <c r="G22" t="str">
-        <v>Croma- A215 -Nashik-Nashik Road</v>
+        <v>VS- Pune(Dhankawadi-Satara Rd)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Vasanthi</v>
+        <v>Altamash Miyabhai Shaikh</v>
       </c>
       <c r="B23" t="str">
-        <v>8248188669</v>
+        <v>7020496418</v>
       </c>
       <c r="C23" t="str">
         <v>NO</v>
       </c>
       <c r="D23" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E23" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F23">
         <v>9</v>
       </c>
       <c r="G23" t="str">
-        <v>Croma- A097 -Chennai-PMC Mall</v>
+        <v>Croma- A215 -Nashik-Nashik Road</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>MONU</v>
+        <v>Vasanthi</v>
       </c>
       <c r="B24" t="str">
-        <v>7210101783</v>
+        <v>8248188669</v>
       </c>
       <c r="C24" t="str">
         <v>NO</v>
@@ -5281,24 +5716,24 @@
         <v>NO</v>
       </c>
       <c r="E24" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F24">
         <v>9</v>
       </c>
       <c r="G24" t="str">
-        <v>Croma- A718 -Noida-Expo Plaza</v>
+        <v>Croma- A097 -Chennai-PMC Mall</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>REHAAN</v>
+        <v>MONU</v>
       </c>
       <c r="B25" t="str">
-        <v>9911912199</v>
+        <v>7210101783</v>
       </c>
       <c r="C25" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="D25" t="str">
         <v>NO</v>
@@ -5310,38 +5745,38 @@
         <v>9</v>
       </c>
       <c r="G25" t="str">
-        <v>Croma- A555 -Noida-Sector 122</v>
+        <v>Croma- A718 -Noida-Expo Plaza</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Ajay Bapu Khade</v>
+        <v>REHAAN</v>
       </c>
       <c r="B26" t="str">
-        <v>9762449504</v>
+        <v>9911912199</v>
       </c>
       <c r="C26" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="D26" t="str">
         <v>NO</v>
       </c>
       <c r="E26" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" t="str">
-        <v>VS- Pune(Station Rd) Br</v>
+        <v>Croma- A555 -Noida-Sector 122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>SOURAV KUMAR</v>
+        <v>Ajay Bapu Khade</v>
       </c>
       <c r="B27" t="str">
-        <v>9814654646</v>
+        <v>9762449504</v>
       </c>
       <c r="C27" t="str">
         <v>NO</v>
@@ -5356,15 +5791,15 @@
         <v>8</v>
       </c>
       <c r="G27" t="str">
-        <v>Croma- A163 -Jalandhar-Lajpat Nagar</v>
+        <v>VS- Pune(Station Rd) Br</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Prashanth</v>
+        <v>MOHAMMED HASAN</v>
       </c>
       <c r="B28" t="str">
-        <v>7780617002</v>
+        <v>7337016584</v>
       </c>
       <c r="C28" t="str">
         <v>NO</v>
@@ -5379,15 +5814,15 @@
         <v>8</v>
       </c>
       <c r="G28" t="str">
-        <v>Croma- A170 -Hyderabad-Kukatpally</v>
+        <v>Croma- A562 -Hyderabad-Manikonda</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Aviazuu</v>
+        <v>SOURAV KUMAR</v>
       </c>
       <c r="B29" t="str">
-        <v>9019950849</v>
+        <v>9814654646</v>
       </c>
       <c r="C29" t="str">
         <v>NO</v>
@@ -5402,38 +5837,38 @@
         <v>8</v>
       </c>
       <c r="G29" t="str">
-        <v>Croma- A605 -Bangalore-Basaveshwar Nagar</v>
+        <v>Croma- A163 -Jalandhar-Lajpat Nagar</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sonu Tanwar</v>
+        <v>SACHIN HARIKESH DUBEY</v>
       </c>
       <c r="B30" t="str">
-        <v>7000079717</v>
+        <v>6353129463</v>
       </c>
       <c r="C30" t="str">
         <v>NO</v>
       </c>
       <c r="D30" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E30" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F30">
         <v>8</v>
       </c>
       <c r="G30" t="str">
-        <v>Croma- A186 -Indore-Vijay Nagar Square</v>
+        <v>VS- Surat Br</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>SHAIKH SHAHEBAZ</v>
+        <v>Aviazuu</v>
       </c>
       <c r="B31" t="str">
-        <v>7218253698</v>
+        <v>9019950849</v>
       </c>
       <c r="C31" t="str">
         <v>NO</v>
@@ -5445,41 +5880,41 @@
         <v>NO</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" t="str">
-        <v>VS- Pune(Hadapsar)</v>
+        <v>Croma- A605 -Bangalore-Basaveshwar Nagar</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>YASHWANT SINGH</v>
+        <v>Sonu Tanwar</v>
       </c>
       <c r="B32" t="str">
-        <v>8896365474</v>
+        <v>7000079717</v>
       </c>
       <c r="C32" t="str">
         <v>NO</v>
       </c>
       <c r="D32" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E32" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32" t="str">
-        <v>Croma- A039 -Mumbai-Sion</v>
+        <v>Croma- A186 -Indore-Vijay Nagar Square</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Shekh malik shekh rashid</v>
+        <v>SHAIKH SHAHEBAZ</v>
       </c>
       <c r="B33" t="str">
-        <v>8788883037</v>
+        <v>7218253698</v>
       </c>
       <c r="C33" t="str">
         <v>NO</v>
@@ -5494,7 +5929,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="str">
-        <v>VS- Pune(Kondhawa)</v>
+        <v>VS- Pune(Hadapsar)</v>
       </c>
     </row>
     <row r="34">
@@ -5545,33 +5980,33 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Imran Motiwala</v>
+        <v>Seema shriram yadav</v>
       </c>
       <c r="B36" t="str">
-        <v>7977773143</v>
+        <v>8488905860</v>
       </c>
       <c r="C36" t="str">
         <v>NO</v>
       </c>
       <c r="D36" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E36" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="str">
-        <v>Croma- A488 -Nashik-Dindori Road</v>
+        <v>Croma- A195 -Vapi-Daman Road</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Seema shriram yadav</v>
+        <v>Salman Khan</v>
       </c>
       <c r="B37" t="str">
-        <v>8488905860</v>
+        <v>7676060317</v>
       </c>
       <c r="C37" t="str">
         <v>NO</v>
@@ -5586,15 +6021,15 @@
         <v>6</v>
       </c>
       <c r="G37" t="str">
-        <v>Croma- A195 -Vapi-Daman Road</v>
+        <v>Croma- A326 -Bangalore-Kanakpura</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Bhavnil patel</v>
+        <v>MOHAMMED TABEEHAN</v>
       </c>
       <c r="B38" t="str">
-        <v>9377706162</v>
+        <v>8722727829</v>
       </c>
       <c r="C38" t="str">
         <v>NO</v>
@@ -5609,15 +6044,15 @@
         <v>6</v>
       </c>
       <c r="G38" t="str">
-        <v>VS- Ahmedabad(Chandkheda Rd) Br</v>
+        <v>Croma- A539 -Bangalore-Mall of Asia</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>AJMERI SHAMVILAHEMAD DILAWARHUSEN</v>
+        <v>ROHIT DILIP SHELAR</v>
       </c>
       <c r="B39" t="str">
-        <v>6352720564</v>
+        <v>7263993030</v>
       </c>
       <c r="C39" t="str">
         <v>NO</v>
@@ -5632,15 +6067,15 @@
         <v>6</v>
       </c>
       <c r="G39" t="str">
-        <v>Croma- A250 -Ahmedabad-Bopal</v>
+        <v>Croma- A049 -Pune-Kothrud</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>MOHAMMED TABEEHAN</v>
+        <v>Vikram Kumar</v>
       </c>
       <c r="B40" t="str">
-        <v>8722727829</v>
+        <v>9877732964</v>
       </c>
       <c r="C40" t="str">
         <v>NO</v>
@@ -5655,15 +6090,15 @@
         <v>6</v>
       </c>
       <c r="G40" t="str">
-        <v>Croma- A539 -Bangalore-Mall of Asia</v>
+        <v>Croma- A162 -Mohali-VR Mall</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Rahul rai</v>
+        <v>Hemalatha</v>
       </c>
       <c r="B41" t="str">
-        <v>8010193101</v>
+        <v>8971383391</v>
       </c>
       <c r="C41" t="str">
         <v>NO</v>
@@ -5678,38 +6113,38 @@
         <v>6</v>
       </c>
       <c r="G41" t="str">
-        <v>Croma- A050 -Gurugram-Dlf Mega Mall</v>
+        <v>Croma- A060 -Bangalore-Marathahalli</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Abdurrazzaque Sayed</v>
+        <v>SYED ABDUL MAJEED</v>
       </c>
       <c r="B42" t="str">
-        <v>8286460726</v>
+        <v>7386047386</v>
       </c>
       <c r="C42" t="str">
         <v>NO</v>
       </c>
       <c r="D42" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E42" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="str">
-        <v>Croma- A009 -Navi Mumbai-Belapur</v>
+        <v>Reliance Digital- TB83 - Panjagutta Hyderabad</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>ROHIT DILIP SHELAR</v>
+        <v>RAKESH AJINATH SONAWANE</v>
       </c>
       <c r="B43" t="str">
-        <v>7263993030</v>
+        <v>7499489496</v>
       </c>
       <c r="C43" t="str">
         <v>NO</v>
@@ -5721,41 +6156,41 @@
         <v>YES</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43" t="str">
-        <v>Croma- A049 -Pune-Kothrud</v>
+        <v>Croma- A399 -Pune-Bavdhan</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Vikram Kumar</v>
+        <v>AKASH PAL</v>
       </c>
       <c r="B44" t="str">
-        <v>9877732964</v>
+        <v>8777459719</v>
       </c>
       <c r="C44" t="str">
         <v>NO</v>
       </c>
       <c r="D44" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E44" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" t="str">
-        <v>Croma- A162 -Mohali-VR Mall</v>
+        <v>Croma- A385 -Kolkata-Acropolis Mall</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Hemalatha</v>
+        <v>Preeti</v>
       </c>
       <c r="B45" t="str">
-        <v>8971383391</v>
+        <v>8447229213</v>
       </c>
       <c r="C45" t="str">
         <v>NO</v>
@@ -5767,139 +6202,139 @@
         <v>NO</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G45" t="str">
-        <v>Croma- A060 -Bangalore-Marathahalli</v>
+        <v>Croma- A120 -Gurugram-Sector 29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>SACHIN SHARMA</v>
+        <v>MENTLA ARAVIND</v>
       </c>
       <c r="B46" t="str">
-        <v>9625253553</v>
+        <v>9391576815</v>
       </c>
       <c r="C46" t="str">
         <v>NO</v>
       </c>
       <c r="D46" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E46" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" t="str">
-        <v>VS- Delhi(Dwarka) Br</v>
+        <v>VS- Ts(Kothapet)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Thimmaiah g</v>
+        <v>Md sajid Hussain</v>
       </c>
       <c r="B47" t="str">
-        <v>8147888964</v>
+        <v>8826718526</v>
       </c>
       <c r="C47" t="str">
         <v>NO</v>
       </c>
       <c r="D47" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E47" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47" t="str">
-        <v>Croma- A591 -Tumkur-BH Road</v>
+        <v>Reliance Digital- TA9U - BB-NOIDA-MALL OF IND</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SYED ABDUL MAJEED</v>
+        <v>SOUMAJIT ROY</v>
       </c>
       <c r="B48" t="str">
-        <v>7386047386</v>
+        <v>8100432608</v>
       </c>
       <c r="C48" t="str">
         <v>NO</v>
       </c>
       <c r="D48" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E48" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48" t="str">
-        <v>Reliance Digital- TB83 - Panjagutta Hyderabad</v>
+        <v>Croma- A633 -Kolkata-Salt Lake Sector 1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>RAKESH AJINATH SONAWANE</v>
+        <v>Mansoor</v>
       </c>
       <c r="B49" t="str">
-        <v>7499489496</v>
+        <v>8296299896</v>
       </c>
       <c r="C49" t="str">
         <v>NO</v>
       </c>
       <c r="D49" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E49" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="G49" t="str">
-        <v>Croma- A399 -Pune-Bavdhan</v>
+        <v>Croma- A272 -Shivamoga-Savalanga Road</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Swapnil chintal</v>
+        <v>ANSARI SAJID SAJJAD AHMED</v>
       </c>
       <c r="B50" t="str">
-        <v>7040589065</v>
+        <v>8208406748</v>
       </c>
       <c r="C50" t="str">
         <v>NO</v>
       </c>
       <c r="D50" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E50" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
       <c r="G50" t="str">
-        <v>Croma- A314 -Ahmednagar-Kohinoor Mall</v>
+        <v>Croma- A222 -Pune-Katraj</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>AKASH PAL</v>
+        <v>Srinidhi</v>
       </c>
       <c r="B51" t="str">
-        <v>8777459719</v>
+        <v>8088099933</v>
       </c>
       <c r="C51" t="str">
         <v>NO</v>
       </c>
       <c r="D51" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E51" t="str">
         <v>YES</v>
@@ -5908,15 +6343,15 @@
         <v>5</v>
       </c>
       <c r="G51" t="str">
-        <v>Croma- A385 -Kolkata-Acropolis Mall</v>
+        <v>Croma- A236 -Bangalore-Malleshwaram</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Preeti</v>
+        <v>Vinoth M</v>
       </c>
       <c r="B52" t="str">
-        <v>8447229213</v>
+        <v>8939590763</v>
       </c>
       <c r="C52" t="str">
         <v>NO</v>
@@ -5931,15 +6366,15 @@
         <v>5</v>
       </c>
       <c r="G52" t="str">
-        <v>Croma- A120 -Gurugram-Sector 29</v>
+        <v>Croma- A034 -Chennai-Mount Road</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>MENTLA ARAVIND</v>
+        <v>Ajharul haque</v>
       </c>
       <c r="B53" t="str">
-        <v>9391576815</v>
+        <v>6009139717</v>
       </c>
       <c r="C53" t="str">
         <v>NO</v>
@@ -5954,84 +6389,84 @@
         <v>5</v>
       </c>
       <c r="G53" t="str">
-        <v>VS- Ts(Kothapet)</v>
+        <v>Croma- A150 -Bangalore-Whitefield</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Md sajid Hussain</v>
+        <v>Pappu kumar thakur</v>
       </c>
       <c r="B54" t="str">
-        <v>8826718526</v>
+        <v>9958081152</v>
       </c>
       <c r="C54" t="str">
         <v>NO</v>
       </c>
       <c r="D54" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E54" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54" t="str">
-        <v>Reliance Digital- TA9U - BB-NOIDA-MALL OF IND</v>
+        <v>Croma- A212 -Gurugram-Worldmark 2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>SOUMAJIT ROY</v>
+        <v>ALTAF PATEL</v>
       </c>
       <c r="B55" t="str">
-        <v>8100432608</v>
+        <v>8247786383</v>
       </c>
       <c r="C55" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="D55" t="str">
         <v>NO</v>
       </c>
       <c r="E55" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="G55" t="str">
-        <v>Croma- A633 -Kolkata-Salt Lake Sector 1</v>
+        <v>VS- Ts(Paradise Circle)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Mansoor</v>
+        <v>MOHAMMED NAYAB</v>
       </c>
       <c r="B56" t="str">
-        <v>8296299896</v>
+        <v>7032236130</v>
       </c>
       <c r="C56" t="str">
         <v>NO</v>
       </c>
       <c r="D56" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E56" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
       <c r="G56" t="str">
-        <v>Croma- A272 -Shivamoga-Savalanga Road</v>
+        <v>Croma- A029 -Hyderabad-Panjagutta</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>ANSARI SAJID SAJJAD AHMED</v>
+        <v>KAPIL KUMAR</v>
       </c>
       <c r="B57" t="str">
-        <v>8208406748</v>
+        <v>9350771004</v>
       </c>
       <c r="C57" t="str">
         <v>NO</v>
@@ -6046,15 +6481,15 @@
         <v>5</v>
       </c>
       <c r="G57" t="str">
-        <v>Croma- A222 -Pune-Katraj</v>
+        <v>Croma- A024 -Ghazibad-Aditya Mall</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Srinidhi</v>
+        <v>ANAND KUMAR CHOUBEY</v>
       </c>
       <c r="B58" t="str">
-        <v>8088099933</v>
+        <v>7020936996</v>
       </c>
       <c r="C58" t="str">
         <v>NO</v>
@@ -6063,21 +6498,21 @@
         <v>NO</v>
       </c>
       <c r="E58" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="G58" t="str">
-        <v>Croma- A236 -Bangalore-Malleshwaram</v>
+        <v>Reliance Digital- TX08 - RRL CDIT Elpro Chinchwad</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Vinoth M</v>
+        <v>Saad Mahemood Siddiqui</v>
       </c>
       <c r="B59" t="str">
-        <v>8939590763</v>
+        <v>8379043649</v>
       </c>
       <c r="C59" t="str">
         <v>NO</v>
@@ -6092,15 +6527,15 @@
         <v>5</v>
       </c>
       <c r="G59" t="str">
-        <v>Croma- A034 -Chennai-Mount Road</v>
+        <v>Reliance Digital- TZ8D - RRL CDIT- Jalna Road</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Ajharul haque</v>
+        <v>Rupesh</v>
       </c>
       <c r="B60" t="str">
-        <v>6009139717</v>
+        <v>9008016679</v>
       </c>
       <c r="C60" t="str">
         <v>NO</v>
@@ -6115,61 +6550,61 @@
         <v>5</v>
       </c>
       <c r="G60" t="str">
-        <v>Croma- A150 -Bangalore-Whitefield</v>
+        <v>Croma- A452 -Bangalore-KR Puram</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Md sadab ahmad</v>
+        <v>Mohammed Waseem</v>
       </c>
       <c r="B61" t="str">
-        <v>9871392425</v>
+        <v>9963708076</v>
       </c>
       <c r="C61" t="str">
         <v>NO</v>
       </c>
       <c r="D61" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E61" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="G61" t="str">
-        <v>Croma- A135 -Noida-Logix Mall</v>
+        <v>Reliance Digital- 8823 - RRL CDIT Shivam Road Hyderaba</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Pappu kumar thakur</v>
+        <v>Vikas kumar singh</v>
       </c>
       <c r="B62" t="str">
-        <v>9958081152</v>
+        <v>7827178933</v>
       </c>
       <c r="C62" t="str">
         <v>NO</v>
       </c>
       <c r="D62" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E62" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F62">
         <v>5</v>
       </c>
       <c r="G62" t="str">
-        <v>Croma- A212 -Gurugram-Worldmark 2</v>
+        <v>Reliance Digital- TA9U - BB-NOIDA-MALL OF IND</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mohammed nayab</v>
+        <v>KALAI SELVAN VINOTH KUMAR</v>
       </c>
       <c r="B63" t="str">
-        <v>7032236130</v>
+        <v>9626983020</v>
       </c>
       <c r="C63" t="str">
         <v>NO</v>
@@ -6181,41 +6616,41 @@
         <v>NO</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" t="str">
-        <v>Croma- A029 -Hyderabad-Panjagutta</v>
+        <v>Croma- A650 -Madurai-100 Feet Road</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>KAPIL KUMAR</v>
+        <v>Sumanth Erugu</v>
       </c>
       <c r="B64" t="str">
-        <v>9350771004</v>
+        <v>7670904613</v>
       </c>
       <c r="C64" t="str">
         <v>NO</v>
       </c>
       <c r="D64" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E64" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G64" t="str">
-        <v>Croma- A024 -Ghazibad-Aditya Mall</v>
+        <v>VS- Ts(Hastinapur)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>ANAND KUMAR CHOUBEY</v>
+        <v>Hasan ali</v>
       </c>
       <c r="B65" t="str">
-        <v>7020936996</v>
+        <v>6300217495</v>
       </c>
       <c r="C65" t="str">
         <v>NO</v>
@@ -6227,18 +6662,18 @@
         <v>NO</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G65" t="str">
-        <v>Reliance Digital- TX08 - RRL CDIT Elpro Chinchwad</v>
+        <v>Croma- A470 -Hyderabad-Hyderguda</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Saad Mahemood Siddiqui</v>
+        <v>VINEET CHOPRA</v>
       </c>
       <c r="B66" t="str">
-        <v>8379043649</v>
+        <v>7289808873</v>
       </c>
       <c r="C66" t="str">
         <v>NO</v>
@@ -6250,18 +6685,18 @@
         <v>NO</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G66" t="str">
-        <v>Reliance Digital- TZ8D - RRL CDIT- Jalna Road</v>
+        <v>Croma- A182 -Gwalior-City Center</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Jatin Mahajan</v>
+        <v>Ashwani</v>
       </c>
       <c r="B67" t="str">
-        <v>9828499293</v>
+        <v>8130340268</v>
       </c>
       <c r="C67" t="str">
         <v>NO</v>
@@ -6273,41 +6708,41 @@
         <v>NO</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G67" t="str">
-        <v>A740 - Gorakhpur Taramandal</v>
+        <v>Croma- A417 -Delhi-Patparganj</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rupesh</v>
+        <v>KAMALDEEP</v>
       </c>
       <c r="B68" t="str">
-        <v>9008016679</v>
+        <v>9729342716</v>
       </c>
       <c r="C68" t="str">
         <v>NO</v>
       </c>
       <c r="D68" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E68" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G68" t="str">
-        <v>Croma- A452 -Bangalore-KR Puram</v>
+        <v>Croma- A355 -Yamunanagar-Gobindpuri Road</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mohammed Waseem</v>
+        <v>SURAJ</v>
       </c>
       <c r="B69" t="str">
-        <v>9963708076</v>
+        <v>9315460397</v>
       </c>
       <c r="C69" t="str">
         <v>NO</v>
@@ -6319,18 +6754,18 @@
         <v>NO</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G69" t="str">
-        <v>Reliance Digital- 8823 - RRL CDIT Shivam Road Hyderaba</v>
+        <v>VS- Up (Noida Sec.18) Br</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Vikas kumar singh</v>
+        <v>Azhar Azeem shaikh</v>
       </c>
       <c r="B70" t="str">
-        <v>7827178933</v>
+        <v>7066015149</v>
       </c>
       <c r="C70" t="str">
         <v>NO</v>
@@ -6342,41 +6777,41 @@
         <v>NO</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G70" t="str">
-        <v>Reliance Digital- TA9U - BB-NOIDA-MALL OF IND</v>
+        <v>Croma- A129 -Pune-PMC Mall</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>KALAI SELVAN VINOTH KUMAR</v>
+        <v>REHAN ABRAR KADRI</v>
       </c>
       <c r="B71" t="str">
-        <v>9626983020</v>
+        <v>9082546823</v>
       </c>
       <c r="C71" t="str">
         <v>NO</v>
       </c>
       <c r="D71" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E71" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" t="str">
-        <v>Croma- A650 -Madurai-100 Feet Road</v>
+        <v>Reliance Digital- TB84 - RRL CDIT Sawan Life Style</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Hasan ali</v>
+        <v>Sofiyan Billahamar</v>
       </c>
       <c r="B72" t="str">
-        <v>6300217495</v>
+        <v>9322868460</v>
       </c>
       <c r="C72" t="str">
         <v>NO</v>
@@ -6388,41 +6823,41 @@
         <v>NO</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G72" t="str">
-        <v>Croma- A470 -Hyderabad-Hyderguda</v>
+        <v>Croma- A413 -Jalna-Old Mondha</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>VINEET CHOPRA</v>
+        <v>Nawab sandimani</v>
       </c>
       <c r="B73" t="str">
-        <v>7289808873</v>
+        <v>9538293353</v>
       </c>
       <c r="C73" t="str">
         <v>NO</v>
       </c>
       <c r="D73" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E73" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73" t="str">
-        <v>Croma- A182 -Gwalior-City Center</v>
+        <v>Croma- A167 -Hubli-Gokul Road</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ashwani</v>
+        <v>MOHAMMADSALIM Shaikh</v>
       </c>
       <c r="B74" t="str">
-        <v>8130340268</v>
+        <v>7383727765</v>
       </c>
       <c r="C74" t="str">
         <v>NO</v>
@@ -6437,15 +6872,15 @@
         <v>3</v>
       </c>
       <c r="G74" t="str">
-        <v>Croma- A417 -Delhi-Patparganj</v>
+        <v>VS- Ahmedabad(Ashram Rd) Br</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>KAMALDEEP</v>
+        <v>SIVARANJANI M</v>
       </c>
       <c r="B75" t="str">
-        <v>9729342716</v>
+        <v>9585380107</v>
       </c>
       <c r="C75" t="str">
         <v>NO</v>
@@ -6460,15 +6895,15 @@
         <v>3</v>
       </c>
       <c r="G75" t="str">
-        <v>Croma- A355 -Yamunanagar-Gobindpuri Road</v>
+        <v>Croma-A665 - Kolathur</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>PREETY SINHA</v>
+        <v>Manoj Singh Rathour</v>
       </c>
       <c r="B76" t="str">
-        <v>9762975009</v>
+        <v>8840997933</v>
       </c>
       <c r="C76" t="str">
         <v>NO</v>
@@ -6483,15 +6918,15 @@
         <v>3</v>
       </c>
       <c r="G76" t="str">
-        <v>VS- Pune(Dange Chowk)</v>
+        <v>Croma- A359 -Kanpur-Awas Vikas</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Salman Khan</v>
+        <v>Thakor MohammadAtik</v>
       </c>
       <c r="B77" t="str">
-        <v>7676060317</v>
+        <v>9033786559</v>
       </c>
       <c r="C77" t="str">
         <v>NO</v>
@@ -6506,38 +6941,38 @@
         <v>3</v>
       </c>
       <c r="G77" t="str">
-        <v>Croma- A326 -Bangalore-Kanakpura</v>
+        <v>VS- Ahmedabad(Odhav) Br</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>REHAN ABRAR KADRI</v>
+        <v>Thangamani</v>
       </c>
       <c r="B78" t="str">
-        <v>9082546823</v>
+        <v>9952020332</v>
       </c>
       <c r="C78" t="str">
         <v>NO</v>
       </c>
       <c r="D78" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E78" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
       <c r="G78" t="str">
-        <v>Reliance Digital- TB84 - RRL CDIT Sawan Life Style</v>
+        <v>Croma- A157 -Chennai-Avadi</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Sofiyan Billahamar</v>
+        <v>PREETI KUMARI</v>
       </c>
       <c r="B79" t="str">
-        <v>9322868460</v>
+        <v>9509795132</v>
       </c>
       <c r="C79" t="str">
         <v>NO</v>
@@ -6552,38 +6987,38 @@
         <v>3</v>
       </c>
       <c r="G79" t="str">
-        <v>Croma- A413 -Jalna-Old Mondha</v>
+        <v>Reliance Digital- TVL2 - RRL CDIT-Tonk Road</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Nawab sandimani</v>
+        <v>Sahil Qureshi</v>
       </c>
       <c r="B80" t="str">
-        <v>9538293353</v>
+        <v>7383843672</v>
       </c>
       <c r="C80" t="str">
         <v>NO</v>
       </c>
       <c r="D80" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E80" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
       <c r="G80" t="str">
-        <v>Croma- A167 -Hubli-Gokul Road</v>
+        <v>Croma- A107 -Ahmedabad-Ratna</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Manoj Singh Rathour</v>
+        <v>KHALANDER SHAFI</v>
       </c>
       <c r="B81" t="str">
-        <v>8840997933</v>
+        <v>8618660044</v>
       </c>
       <c r="C81" t="str">
         <v>NO</v>
@@ -6598,38 +7033,38 @@
         <v>3</v>
       </c>
       <c r="G81" t="str">
-        <v>Croma- A359 -Kanpur-Awas Vikas</v>
+        <v>Croma- A642 -Bangalore-Vega City</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Thakor MohammadAtik</v>
+        <v>Rahul mukati</v>
       </c>
       <c r="B82" t="str">
-        <v>9033786559</v>
+        <v>9685858504</v>
       </c>
       <c r="C82" t="str">
         <v>NO</v>
       </c>
       <c r="D82" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E82" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F82">
         <v>3</v>
       </c>
       <c r="G82" t="str">
-        <v>VS- Ahmedabad(Odhav) Br</v>
+        <v>Croma- A456 -Indore-Annapurna Road</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Thangamani</v>
+        <v>VASANTHAKUMAR</v>
       </c>
       <c r="B83" t="str">
-        <v>9952020332</v>
+        <v>8248905986</v>
       </c>
       <c r="C83" t="str">
         <v>NO</v>
@@ -6644,38 +7079,38 @@
         <v>3</v>
       </c>
       <c r="G83" t="str">
-        <v>Croma- A157 -Chennai-Avadi</v>
+        <v>Croma- A138 -Chennai-BSR Mall</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>PREETI KUMARI</v>
+        <v>GADIGI NAGENDRAPPA ABHISHEK</v>
       </c>
       <c r="B84" t="str">
-        <v>9509795132</v>
+        <v>8548878859</v>
       </c>
       <c r="C84" t="str">
         <v>NO</v>
       </c>
       <c r="D84" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E84" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F84">
         <v>3</v>
       </c>
       <c r="G84" t="str">
-        <v>Reliance Digital- TVL2 - RRL CDIT-Tonk Road</v>
+        <v>Croma- A185 -Davanagere-Hadadi Road</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Sahil Qureshi</v>
+        <v>SAMAR SEN</v>
       </c>
       <c r="B85" t="str">
-        <v>7383843672</v>
+        <v>8409675656</v>
       </c>
       <c r="C85" t="str">
         <v>NO</v>
@@ -6690,15 +7125,15 @@
         <v>3</v>
       </c>
       <c r="G85" t="str">
-        <v>Croma- A107 -Ahmedabad-Ratna</v>
+        <v>Croma- A245 -Dhanbad-Prabhatam Grand Mall</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>KHALANDER SHAFI</v>
+        <v>HARPAL KASHYAP</v>
       </c>
       <c r="B86" t="str">
-        <v>8618660044</v>
+        <v>9971338375</v>
       </c>
       <c r="C86" t="str">
         <v>NO</v>
@@ -6713,15 +7148,15 @@
         <v>3</v>
       </c>
       <c r="G86" t="str">
-        <v>Croma- A642 -Bangalore-Vega City</v>
+        <v>VS- Delhi(Nawada)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Suraj Kumar</v>
+        <v>DINESH KUMAR</v>
       </c>
       <c r="B87" t="str">
-        <v>9517662406</v>
+        <v>7055566688</v>
       </c>
       <c r="C87" t="str">
         <v>NO</v>
@@ -6730,44 +7165,44 @@
         <v>NO</v>
       </c>
       <c r="E87" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F87">
         <v>3</v>
       </c>
       <c r="G87" t="str">
-        <v>Croma- A041 -Mumbai-Oberoi Mall</v>
+        <v>Croma- A050 -Gurugram-Dlf Mega Mall</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Rahul mukati</v>
+        <v>Pedam Sai Kumar</v>
       </c>
       <c r="B88" t="str">
-        <v>9685858504</v>
+        <v>9573299715</v>
       </c>
       <c r="C88" t="str">
         <v>NO</v>
       </c>
       <c r="D88" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E88" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
       <c r="G88" t="str">
-        <v>Croma- A456 -Indore-Annapurna Road</v>
+        <v>VS- Ts(Nagaram)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>VASANTHAKUMAR</v>
+        <v>LALIT MANIK JAVHERI</v>
       </c>
       <c r="B89" t="str">
-        <v>8248905986</v>
+        <v>7776990478</v>
       </c>
       <c r="C89" t="str">
         <v>NO</v>
@@ -6776,67 +7211,67 @@
         <v>NO</v>
       </c>
       <c r="E89" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F89">
         <v>3</v>
       </c>
       <c r="G89" t="str">
-        <v>Croma- A138 -Chennai-BSR Mall</v>
+        <v>Reliance Digital- TZ8E - RRL CDIT Pathardi Mu</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>GADIGI NAGENDRAPPA ABHISHEK</v>
+        <v>Siddheshwar Sanjay Gaikwad</v>
       </c>
       <c r="B90" t="str">
-        <v>8548878859</v>
+        <v>9130537009</v>
       </c>
       <c r="C90" t="str">
         <v>NO</v>
       </c>
       <c r="D90" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E90" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
       <c r="G90" t="str">
-        <v>Croma- A185 -Davanagere-Hadadi Road</v>
+        <v>Reliance Digital- TJ3X - RRL CDIT Thakker Baz</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>SAMAR SEN</v>
+        <v>AKSHAY NAMDEVRAO MALEKAR</v>
       </c>
       <c r="B91" t="str">
-        <v>8409675656</v>
+        <v>8482855517</v>
       </c>
       <c r="C91" t="str">
         <v>NO</v>
       </c>
       <c r="D91" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E91" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91" t="str">
-        <v>Croma- A245 -Dhanbad-Prabhatam Grand Mall</v>
+        <v>Reliance Digital- TOH3 - RRL CDIT Westend Mall Yavatmal</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>DINESH KUMAR</v>
+        <v>Siddharth suresh dhage</v>
       </c>
       <c r="B92" t="str">
-        <v>7055566688</v>
+        <v>9112171775</v>
       </c>
       <c r="C92" t="str">
         <v>NO</v>
@@ -6845,21 +7280,21 @@
         <v>NO</v>
       </c>
       <c r="E92" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F92">
         <v>3</v>
       </c>
       <c r="G92" t="str">
-        <v>Croma- A050 -Gurugram-Dlf Mega Mall</v>
+        <v>Reliance Digital- 8916 - RRL CDIT Lawate Nagar Nasik</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Md Rashid</v>
+        <v>Mohammad Ibrahim shaikh</v>
       </c>
       <c r="B93" t="str">
-        <v>8434343404</v>
+        <v>7039978507</v>
       </c>
       <c r="C93" t="str">
         <v>NO</v>
@@ -6874,21 +7309,21 @@
         <v>3</v>
       </c>
       <c r="G93" t="str">
-        <v>Reliance Digital- TC2V - RRL CDIT Hajipur</v>
+        <v>Reliance Digital- TQB3 - RRL CDIT R City Mall Ghatkopa</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>LALIT MANIK JAVHERI</v>
+        <v>PANCHATCHARAM KANNAN</v>
       </c>
       <c r="B94" t="str">
-        <v>7776990478</v>
+        <v>6379961402</v>
       </c>
       <c r="C94" t="str">
         <v>NO</v>
       </c>
       <c r="D94" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E94" t="str">
         <v>YES</v>
@@ -6897,15 +7332,15 @@
         <v>3</v>
       </c>
       <c r="G94" t="str">
-        <v>Reliance Digital- TZ8E - RRL CDIT Pathardi Mu</v>
+        <v>Reliance Digital- 8943 - RRL CDIT Vishaal De Mal Madur</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Siddheshwar Sanjay Gaikwad</v>
+        <v>Satyajit prusty</v>
       </c>
       <c r="B95" t="str">
-        <v>9130537009</v>
+        <v>8260544344</v>
       </c>
       <c r="C95" t="str">
         <v>NO</v>
@@ -6920,38 +7355,38 @@
         <v>3</v>
       </c>
       <c r="G95" t="str">
-        <v>Reliance Digital- TJ3X - RRL CDIT Thakker Baz</v>
+        <v>Croma- A454 -Cuttack-College Square</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>AKSHAY NAMDEVRAO MALEKAR</v>
+        <v>Hemant sharma</v>
       </c>
       <c r="B96" t="str">
-        <v>8482855517</v>
+        <v>8000774890</v>
       </c>
       <c r="C96" t="str">
         <v>NO</v>
       </c>
       <c r="D96" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E96" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="G96" t="str">
-        <v>Reliance Digital- TOH3 - RRL CDIT Westend Mall Yavatmal</v>
+        <v>Reliance Digital- TO34 - RRL CDIT Govind Marg Raja Park</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Siddharth suresh dhage</v>
+        <v>Pawan lodhi</v>
       </c>
       <c r="B97" t="str">
-        <v>9112171775</v>
+        <v>9644410662</v>
       </c>
       <c r="C97" t="str">
         <v>NO</v>
@@ -6966,15 +7401,15 @@
         <v>3</v>
       </c>
       <c r="G97" t="str">
-        <v>Reliance Digital- 8916 - RRL CDIT Lawate Nagar Nasik</v>
+        <v>Reliance Digital- TFJ5 - RRL CDIT-Rajendra Na</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Mohammad Ibrahim shaikh</v>
+        <v>Vanzara mehul</v>
       </c>
       <c r="B98" t="str">
-        <v>7039978507</v>
+        <v>8849996057</v>
       </c>
       <c r="C98" t="str">
         <v>NO</v>
@@ -6989,38 +7424,38 @@
         <v>3</v>
       </c>
       <c r="G98" t="str">
-        <v>Reliance Digital- TQB3 - RRL CDIT R City Mall Ghatkopa</v>
+        <v>Croma- A302 -Vadodara-Nizampura</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>PANCHATCHARAM KANNAN</v>
+        <v>Siddiq pasha</v>
       </c>
       <c r="B99" t="str">
-        <v>6379961402</v>
+        <v>9606654579</v>
       </c>
       <c r="C99" t="str">
         <v>NO</v>
       </c>
       <c r="D99" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E99" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F99">
         <v>3</v>
       </c>
       <c r="G99" t="str">
-        <v>Reliance Digital- 8943 - RRL CDIT Vishaal De Mal Madur</v>
+        <v>Reliance Digital- TG1N - RRLCDIT Mall Of Asia</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Satyajit prusty</v>
+        <v>SEKAR KAMALAKANNAN</v>
       </c>
       <c r="B100" t="str">
-        <v>8260544344</v>
+        <v>9884653889</v>
       </c>
       <c r="C100" t="str">
         <v>NO</v>
@@ -7029,21 +7464,21 @@
         <v>NO</v>
       </c>
       <c r="E100" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F100">
         <v>3</v>
       </c>
       <c r="G100" t="str">
-        <v>Croma- A454 -Cuttack-College Square</v>
+        <v>Reliance Digital- 8978 - RRL CDIT Chrompet Chennai</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Hemant sharma</v>
+        <v>NISHANTH</v>
       </c>
       <c r="B101" t="str">
-        <v>8000774890</v>
+        <v>8148819432</v>
       </c>
       <c r="C101" t="str">
         <v>NO</v>
@@ -7055,18 +7490,18 @@
         <v>NO</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" t="str">
-        <v>Reliance Digital- TO34 - RRL CDIT Govind Marg Raja Park</v>
+        <v>Croma- A391 -Chennai-Vivira Mall</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>PODISHETTI KISHORE</v>
+        <v>VIKASH KUMAR GUPTA</v>
       </c>
       <c r="B102" t="str">
-        <v>7382470372</v>
+        <v>7002712796</v>
       </c>
       <c r="C102" t="str">
         <v>NO</v>
@@ -7078,18 +7513,18 @@
         <v>NO</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" t="str">
-        <v>Croma- A422 -Secunderabad-Nagaram</v>
+        <v>VS- Delhi(Karol Bagh) Br</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Pawan lodhi</v>
+        <v>Mohd abrar mirza</v>
       </c>
       <c r="B103" t="str">
-        <v>9644410662</v>
+        <v>8555993060</v>
       </c>
       <c r="C103" t="str">
         <v>NO</v>
@@ -7101,18 +7536,18 @@
         <v>NO</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G103" t="str">
-        <v>Reliance Digital- TFJ5 - RRL CDIT-Rajendra Na</v>
+        <v>VS- Ts(Chandrayangutta)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Vanzara mehul</v>
+        <v>MD Yashin</v>
       </c>
       <c r="B104" t="str">
-        <v>8849996057</v>
+        <v>8178078807</v>
       </c>
       <c r="C104" t="str">
         <v>NO</v>
@@ -7124,18 +7559,18 @@
         <v>NO</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104" t="str">
-        <v>Croma- A302 -Vadodara-Nizampura</v>
+        <v>VS- Delhi(Roop Nagar)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>NISHANTH</v>
+        <v>Umer sayyed</v>
       </c>
       <c r="B105" t="str">
-        <v>8148819432</v>
+        <v>9359012298</v>
       </c>
       <c r="C105" t="str">
         <v>NO</v>
@@ -7147,18 +7582,18 @@
         <v>NO</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" t="str">
-        <v>Croma- A391 -Chennai-Vivira Mall</v>
+        <v>Croma- A129 -Pune-PMC Mall</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>VIKASH KUMAR GUPTA</v>
+        <v>YASH ANIL TOURANI</v>
       </c>
       <c r="B106" t="str">
-        <v>7002712796</v>
+        <v>8668993472</v>
       </c>
       <c r="C106" t="str">
         <v>NO</v>
@@ -7170,18 +7605,18 @@
         <v>NO</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="str">
-        <v>VS- Delhi(Karol Bagh) Br</v>
+        <v>Croma- A108 -Nashik-Solitario</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mohd abrar mirza</v>
+        <v>Arvind</v>
       </c>
       <c r="B107" t="str">
-        <v>8555993060</v>
+        <v>8700075610</v>
       </c>
       <c r="C107" t="str">
         <v>NO</v>
@@ -7196,15 +7631,15 @@
         <v>1</v>
       </c>
       <c r="G107" t="str">
-        <v>VS- Ts(Chandrayangutta)</v>
+        <v>Croma- A311 -Delhi-DB Gupta Road</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Umer sayyed</v>
+        <v>Mohammed riyahhan A</v>
       </c>
       <c r="B108" t="str">
-        <v>9359012298</v>
+        <v>9843327813</v>
       </c>
       <c r="C108" t="str">
         <v>NO</v>
@@ -7219,61 +7654,61 @@
         <v>1</v>
       </c>
       <c r="G108" t="str">
-        <v>Croma- A129 -Pune-PMC Mall</v>
+        <v>Croma- A516 -Vellore-Katpadi</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>YASH ANIL TOURANI</v>
+        <v>MOHAMMED ATIQUE ABDUL RAFIQUE SHAIKH</v>
       </c>
       <c r="B109" t="str">
-        <v>8668993472</v>
+        <v>7498516090</v>
       </c>
       <c r="C109" t="str">
         <v>NO</v>
       </c>
       <c r="D109" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E109" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="str">
-        <v>Croma- A108 -Nashik-Solitario</v>
+        <v>Croma- A062 -Chhatrapati Sambhaji Nagar-Prozone Mall</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Arvind</v>
+        <v>Karthika</v>
       </c>
       <c r="B110" t="str">
-        <v>8700075610</v>
+        <v>8220163707</v>
       </c>
       <c r="C110" t="str">
         <v>NO</v>
       </c>
       <c r="D110" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E110" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="str">
-        <v>Croma- A311 -Delhi-DB Gupta Road</v>
+        <v>Croma- A647 -Chennai-Tambaram West</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Mohammed riyahhan A</v>
+        <v>Anjali Gupta</v>
       </c>
       <c r="B111" t="str">
-        <v>9843327813</v>
+        <v>8700074285</v>
       </c>
       <c r="C111" t="str">
         <v>NO</v>
@@ -7288,61 +7723,61 @@
         <v>1</v>
       </c>
       <c r="G111" t="str">
-        <v>Croma- A516 -Vellore-Katpadi</v>
+        <v>VS- Haryana(Mewla M.) Br</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>MOHAMMED ATIQUE ABDUL RAFIQUE SHAIKH</v>
+        <v>Mukesh kumar</v>
       </c>
       <c r="B112" t="str">
-        <v>7498516090</v>
+        <v>9899538328</v>
       </c>
       <c r="C112" t="str">
         <v>NO</v>
       </c>
       <c r="D112" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E112" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="str">
-        <v>Croma- A062 -Chhatrapati Sambhaji Nagar-Prozone Mall</v>
+        <v>Croma- A336 -Delhi-Shahdara</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Karthika</v>
+        <v>Vivek kumar singh</v>
       </c>
       <c r="B113" t="str">
-        <v>8220163707</v>
+        <v>9534403408</v>
       </c>
       <c r="C113" t="str">
         <v>NO</v>
       </c>
       <c r="D113" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E113" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113" t="str">
-        <v>Croma- A647 -Chennai-Tambaram West</v>
+        <v>Croma- A258 -Delhi-Pitampura</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Anjali Gupta</v>
+        <v>Kavuri raja</v>
       </c>
       <c r="B114" t="str">
-        <v>8700074285</v>
+        <v>7815985243</v>
       </c>
       <c r="C114" t="str">
         <v>NO</v>
@@ -7357,15 +7792,15 @@
         <v>1</v>
       </c>
       <c r="G114" t="str">
-        <v>VS- Haryana(Mewla M.) Br</v>
+        <v>VS- Ts(Kompally- Golden Plaza)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Mukesh kumar</v>
+        <v>VINAY TYAGI</v>
       </c>
       <c r="B115" t="str">
-        <v>9899538328</v>
+        <v>8755724146</v>
       </c>
       <c r="C115" t="str">
         <v>NO</v>
@@ -7380,15 +7815,15 @@
         <v>1</v>
       </c>
       <c r="G115" t="str">
-        <v>Croma- A336 -Delhi-Shahdara</v>
+        <v>VS- Up (Noida Sec.18) Br</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Vivek kumar singh</v>
+        <v>Durga sahu</v>
       </c>
       <c r="B116" t="str">
-        <v>9534403408</v>
+        <v>8527709617</v>
       </c>
       <c r="C116" t="str">
         <v>NO</v>
@@ -7403,15 +7838,15 @@
         <v>1</v>
       </c>
       <c r="G116" t="str">
-        <v>Croma- A258 -Delhi-Pitampura</v>
+        <v>VS- Up (Noida Sec.18) Br</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Kavuri raja</v>
+        <v>Ibrahim patel</v>
       </c>
       <c r="B117" t="str">
-        <v>7815985243</v>
+        <v>9052262007</v>
       </c>
       <c r="C117" t="str">
         <v>NO</v>
@@ -7426,15 +7861,15 @@
         <v>1</v>
       </c>
       <c r="G117" t="str">
-        <v>VS- Ts(Kompally- Golden Plaza)</v>
+        <v>Croma- A196 -Hyderabad-Madinaguda</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ibrahim patel</v>
+        <v>Anup chakraborty</v>
       </c>
       <c r="B118" t="str">
-        <v>9052262007</v>
+        <v>9263405982</v>
       </c>
       <c r="C118" t="str">
         <v>NO</v>
@@ -7449,15 +7884,15 @@
         <v>1</v>
       </c>
       <c r="G118" t="str">
-        <v>Croma- A196 -Hyderabad-Madinaguda</v>
+        <v>Croma- A618 -Burdwan-Regent Crown</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Anup chakraborty</v>
+        <v>MD AMINULLAH</v>
       </c>
       <c r="B119" t="str">
-        <v>9263405982</v>
+        <v>9911242693</v>
       </c>
       <c r="C119" t="str">
         <v>NO</v>
@@ -7472,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="str">
-        <v>Croma- A618 -Burdwan-Regent Crown</v>
+        <v>VS- Haryana(Dundahera)</v>
       </c>
     </row>
     <row r="120">
